--- a/shift.xlsx
+++ b/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="52">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -109,6 +109,9 @@
     <t>Cara</t>
   </si>
   <si>
+    <t>Alfonso</t>
+  </si>
+  <si>
     <t>SundayAM</t>
   </si>
   <si>
@@ -164,6 +167,9 @@
   </si>
   <si>
     <t>Runner</t>
+  </si>
+  <si>
+    <t>Expo</t>
   </si>
 </sst>
 </file>
@@ -495,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,46 +512,46 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -553,46 +559,46 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -600,46 +606,46 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -647,46 +653,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -694,46 +700,46 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -741,46 +747,46 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -788,46 +794,46 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -835,46 +841,46 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -882,46 +888,46 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s">
         <v>46</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -938,31 +944,31 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
         <v>46</v>
@@ -976,43 +982,43 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
         <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
         <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O11" t="s">
         <v>46</v>
@@ -1026,43 +1032,43 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1073,43 +1079,43 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
         <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
       </c>
       <c r="N13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1117,43 +1123,43 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s">
         <v>46</v>
       </c>
       <c r="N14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O14" t="s">
         <v>46</v>
@@ -1164,46 +1170,46 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
         <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N15" t="s">
         <v>46</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1211,46 +1217,46 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1258,46 +1264,46 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N17" t="s">
         <v>46</v>
       </c>
       <c r="O17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1311,40 +1317,40 @@
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
         <v>46</v>
       </c>
       <c r="L18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N18" t="s">
         <v>46</v>
       </c>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1352,43 +1358,43 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O19" t="s">
         <v>46</v>
@@ -1402,43 +1408,43 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1446,46 +1452,46 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1493,46 +1499,46 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
         <v>46</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M22" t="s">
         <v>46</v>
       </c>
       <c r="N22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1543,43 +1549,43 @@
         <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" t="s">
         <v>46</v>
       </c>
       <c r="M23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1590,43 +1596,43 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s">
         <v>46</v>
       </c>
       <c r="L24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1637,22 +1643,22 @@
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
         <v>46</v>
@@ -1661,19 +1667,19 @@
         <v>46</v>
       </c>
       <c r="K25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L25" t="s">
         <v>46</v>
       </c>
       <c r="M25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1681,46 +1687,46 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1728,46 +1734,46 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1775,46 +1781,46 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O28" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1822,46 +1828,46 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1869,46 +1875,46 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1916,46 +1922,93 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O31" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" t="s">
+        <v>51</v>
+      </c>
+      <c r="O32" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="52">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -562,7 +562,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -586,10 +586,10 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
         <v>46</v>
@@ -609,13 +609,13 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -624,10 +624,10 @@
         <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
@@ -639,7 +639,7 @@
         <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
         <v>46</v>
@@ -653,22 +653,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
@@ -677,7 +677,7 @@
         <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
         <v>49</v>
@@ -703,7 +703,7 @@
         <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -715,31 +715,31 @@
         <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
         <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N5" t="s">
         <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
@@ -774,19 +774,19 @@
         <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
         <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N6" t="s">
         <v>49</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -794,13 +794,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -809,25 +809,25 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L7" t="s">
         <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N7" t="s">
         <v>51</v>
@@ -844,22 +844,22 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
         <v>51</v>
@@ -868,19 +868,19 @@
         <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -891,7 +891,7 @@
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
@@ -903,7 +903,7 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
         <v>46</v>
@@ -941,7 +941,7 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
@@ -953,7 +953,7 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
         <v>47</v>
@@ -962,13 +962,13 @@
         <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s">
         <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
         <v>46</v>
@@ -982,16 +982,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
         <v>46</v>
@@ -1006,22 +1006,22 @@
         <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1035,7 +1035,7 @@
         <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>47</v>
@@ -1044,7 +1044,7 @@
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
         <v>46</v>
@@ -1053,7 +1053,7 @@
         <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
         <v>46</v>
@@ -1065,7 +1065,7 @@
         <v>46</v>
       </c>
       <c r="N12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O12" t="s">
         <v>47</v>
@@ -1091,7 +1091,7 @@
         <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
         <v>46</v>
@@ -1100,13 +1100,13 @@
         <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
         <v>46</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
@@ -1129,7 +1129,7 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>47</v>
@@ -1138,19 +1138,19 @@
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L14" t="s">
         <v>46</v>
@@ -1173,7 +1173,7 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>46</v>
@@ -1182,10 +1182,10 @@
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
         <v>46</v>
@@ -1209,7 +1209,7 @@
         <v>46</v>
       </c>
       <c r="O15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1217,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>46</v>
@@ -1247,16 +1247,16 @@
         <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N16" t="s">
         <v>46</v>
       </c>
       <c r="O16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1264,7 +1264,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
@@ -1273,16 +1273,16 @@
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
@@ -1291,19 +1291,19 @@
         <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M17" t="s">
         <v>46</v>
       </c>
       <c r="N17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1311,37 +1311,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M18" t="s">
         <v>46</v>
@@ -1358,19 +1358,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -1379,22 +1379,22 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O19" t="s">
         <v>46</v>
@@ -1408,7 +1408,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
@@ -1420,31 +1420,31 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L20" t="s">
         <v>46</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N20" t="s">
         <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1452,7 +1452,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
         <v>51</v>
@@ -1461,7 +1461,7 @@
         <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
@@ -1470,28 +1470,28 @@
         <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
         <v>46</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L21" t="s">
         <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N21" t="s">
         <v>47</v>
       </c>
       <c r="O21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1499,19 +1499,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -1520,7 +1520,7 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s">
         <v>46</v>
@@ -1529,7 +1529,7 @@
         <v>46</v>
       </c>
       <c r="L22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M22" t="s">
         <v>46</v>
@@ -1555,7 +1555,7 @@
         <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
         <v>46</v>
@@ -1564,13 +1564,13 @@
         <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s">
         <v>46</v>
@@ -1599,10 +1599,10 @@
         <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
         <v>46</v>
@@ -1623,7 +1623,7 @@
         <v>46</v>
       </c>
       <c r="L24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M24" t="s">
         <v>46</v>
@@ -1640,46 +1640,46 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
         <v>48</v>
       </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" t="s">
         <v>48</v>
       </c>
-      <c r="I25" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25" t="s">
-        <v>47</v>
-      </c>
       <c r="N25" t="s">
         <v>46</v>
       </c>
       <c r="O25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1687,16 +1687,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
         <v>46</v>
@@ -1711,7 +1711,7 @@
         <v>46</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s">
         <v>46</v>
@@ -1734,46 +1734,46 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
         <v>48</v>
       </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
       <c r="I27" t="s">
         <v>46</v>
       </c>
       <c r="J27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" t="s">
         <v>48</v>
-      </c>
-      <c r="K27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O27" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1817,7 +1817,7 @@
         <v>46</v>
       </c>
       <c r="N28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O28" t="s">
         <v>50</v>
@@ -1828,7 +1828,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
         <v>46</v>
@@ -1837,37 +1837,37 @@
         <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s">
         <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s">
         <v>51</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L29" t="s">
         <v>46</v>
       </c>
       <c r="M29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N29" t="s">
         <v>46</v>
       </c>
       <c r="O29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1875,40 +1875,40 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" t="s">
         <v>50</v>
-      </c>
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K30" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" t="s">
-        <v>46</v>
       </c>
       <c r="N30" t="s">
         <v>46</v>
@@ -1928,10 +1928,10 @@
         <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
         <v>46</v>
@@ -1955,13 +1955,13 @@
         <v>46</v>
       </c>
       <c r="M31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N31" t="s">
         <v>46</v>
       </c>
       <c r="O31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1969,25 +1969,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
         <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
         <v>46</v>
@@ -1996,16 +1996,16 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M32" t="s">
         <v>51</v>
       </c>
       <c r="N32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O32" t="s">
         <v>46</v>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="52">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -568,10 +568,10 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
@@ -580,25 +580,25 @@
         <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s">
         <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -615,16 +615,16 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
         <v>46</v>
@@ -645,7 +645,7 @@
         <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -662,7 +662,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
         <v>46</v>
@@ -674,10 +674,10 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
         <v>49</v>
@@ -692,7 +692,7 @@
         <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -700,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -712,10 +712,10 @@
         <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
@@ -724,7 +724,7 @@
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
         <v>46</v>
@@ -750,10 +750,10 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
@@ -774,19 +774,19 @@
         <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
         <v>49</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -797,22 +797,22 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
         <v>46</v>
@@ -821,19 +821,19 @@
         <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
         <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -844,40 +844,40 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
         <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O8" t="s">
         <v>47</v>
@@ -891,7 +891,7 @@
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
@@ -903,16 +903,16 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
         <v>46</v>
@@ -935,28 +935,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
@@ -968,7 +968,7 @@
         <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
         <v>46</v>
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -1009,19 +1009,19 @@
         <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1029,22 +1029,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
         <v>46</v>
@@ -1053,19 +1053,19 @@
         <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M12" t="s">
         <v>46</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O12" t="s">
         <v>47</v>
@@ -1088,7 +1088,7 @@
         <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1097,13 +1097,13 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s">
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s">
         <v>46</v>
@@ -1112,7 +1112,7 @@
         <v>46</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O13" t="s">
         <v>46</v>
@@ -1123,7 +1123,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
@@ -1132,7 +1132,7 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
         <v>46</v>
@@ -1141,7 +1141,7 @@
         <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
         <v>47</v>
@@ -1153,16 +1153,16 @@
         <v>46</v>
       </c>
       <c r="L14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1170,7 +1170,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1182,16 +1182,16 @@
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s">
         <v>46</v>
@@ -1206,7 +1206,7 @@
         <v>46</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" t="s">
         <v>46</v>
@@ -1217,16 +1217,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
         <v>47</v>
@@ -1235,28 +1235,28 @@
         <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
         <v>46</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16" t="s">
         <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1267,7 +1267,7 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -1282,7 +1282,7 @@
         <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
@@ -1291,13 +1291,13 @@
         <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L17" t="s">
         <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N17" t="s">
         <v>47</v>
@@ -1311,22 +1311,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
@@ -1335,13 +1335,13 @@
         <v>46</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
         <v>47</v>
       </c>
       <c r="L18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s">
         <v>46</v>
@@ -1350,7 +1350,7 @@
         <v>46</v>
       </c>
       <c r="O18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1364,7 +1364,7 @@
         <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
         <v>46</v>
@@ -1376,16 +1376,16 @@
         <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L19" t="s">
         <v>46</v>
@@ -1405,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
@@ -1423,10 +1423,10 @@
         <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
@@ -1444,7 +1444,7 @@
         <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1452,25 +1452,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
         <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
         <v>46</v>
@@ -1479,19 +1479,19 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1499,7 +1499,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
@@ -1511,7 +1511,7 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -1520,7 +1520,7 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J22" t="s">
         <v>46</v>
@@ -1529,7 +1529,7 @@
         <v>46</v>
       </c>
       <c r="L22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M22" t="s">
         <v>46</v>
@@ -1546,13 +1546,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
         <v>46</v>
@@ -1564,7 +1564,7 @@
         <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
         <v>46</v>
@@ -1579,7 +1579,7 @@
         <v>46</v>
       </c>
       <c r="M23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N23" t="s">
         <v>46</v>
@@ -1599,31 +1599,31 @@
         <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
         <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s">
         <v>46</v>
       </c>
       <c r="L24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M24" t="s">
         <v>46</v>
@@ -1646,40 +1646,40 @@
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s">
         <v>46</v>
       </c>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N25" t="s">
         <v>46</v>
       </c>
       <c r="O25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1687,10 +1687,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
@@ -1711,7 +1711,7 @@
         <v>46</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s">
         <v>46</v>
@@ -1734,40 +1734,40 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
         <v>50</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" t="s">
         <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" t="s">
-        <v>46</v>
-      </c>
-      <c r="M27" t="s">
-        <v>46</v>
       </c>
       <c r="N27" t="s">
         <v>46</v>
@@ -1799,13 +1799,13 @@
         <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s">
         <v>46</v>
@@ -1817,7 +1817,7 @@
         <v>46</v>
       </c>
       <c r="N28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O28" t="s">
         <v>50</v>
@@ -1828,46 +1828,46 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" t="s">
         <v>48</v>
       </c>
-      <c r="H29" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" t="s">
-        <v>46</v>
-      </c>
-      <c r="L29" t="s">
-        <v>46</v>
-      </c>
-      <c r="M29" t="s">
-        <v>46</v>
-      </c>
       <c r="N29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1875,19 +1875,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -1905,10 +1905,10 @@
         <v>46</v>
       </c>
       <c r="L30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N30" t="s">
         <v>46</v>
@@ -1949,16 +1949,16 @@
         <v>46</v>
       </c>
       <c r="K31" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" t="s">
         <v>48</v>
       </c>
-      <c r="L31" t="s">
-        <v>46</v>
-      </c>
       <c r="M31" t="s">
         <v>46</v>
       </c>
       <c r="N31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O31" t="s">
         <v>46</v>
@@ -1972,13 +1972,13 @@
         <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
         <v>46</v>
@@ -1990,7 +1990,7 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J32" t="s">
         <v>46</v>
@@ -1999,7 +1999,7 @@
         <v>51</v>
       </c>
       <c r="L32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M32" t="s">
         <v>51</v>
@@ -2008,7 +2008,7 @@
         <v>46</v>
       </c>
       <c r="O32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -571,10 +571,10 @@
         <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
@@ -583,10 +583,10 @@
         <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
         <v>46</v>
@@ -612,10 +612,10 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -624,7 +624,7 @@
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
         <v>46</v>
@@ -633,7 +633,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
         <v>46</v>
@@ -642,7 +642,7 @@
         <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
         <v>46</v>
@@ -653,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -662,22 +662,22 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
         <v>49</v>
@@ -692,7 +692,7 @@
         <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -700,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -721,7 +721,7 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
@@ -730,13 +730,13 @@
         <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
         <v>46</v>
@@ -747,16 +747,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -768,7 +768,7 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
@@ -777,10 +777,10 @@
         <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N6" t="s">
         <v>49</v>
@@ -794,16 +794,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -815,25 +815,25 @@
         <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
         <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -850,10 +850,10 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -862,25 +862,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
         <v>46</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -888,10 +888,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
@@ -906,13 +906,13 @@
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
         <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
         <v>46</v>
@@ -924,7 +924,7 @@
         <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O9" t="s">
         <v>46</v>
@@ -935,34 +935,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
         <v>46</v>
@@ -991,7 +991,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>46</v>
@@ -1006,7 +1006,7 @@
         <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
         <v>46</v>
@@ -1018,10 +1018,10 @@
         <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1029,10 +1029,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -1047,7 +1047,7 @@
         <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
         <v>46</v>
@@ -1056,16 +1056,16 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M12" t="s">
         <v>46</v>
       </c>
       <c r="N12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O12" t="s">
         <v>47</v>
@@ -1079,7 +1079,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -1091,13 +1091,13 @@
         <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
         <v>46</v>
@@ -1106,10 +1106,10 @@
         <v>47</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N13" t="s">
         <v>46</v>
@@ -1123,10 +1123,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -1147,22 +1147,22 @@
         <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s">
         <v>46</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14" t="s">
         <v>46</v>
       </c>
       <c r="O14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1170,7 +1170,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1182,10 +1182,10 @@
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
         <v>46</v>
@@ -1206,7 +1206,7 @@
         <v>46</v>
       </c>
       <c r="N15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" t="s">
         <v>46</v>
@@ -1217,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>46</v>
@@ -1226,7 +1226,7 @@
         <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
         <v>47</v>
@@ -1235,28 +1235,28 @@
         <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s">
         <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1264,7 +1264,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
@@ -1273,10 +1273,10 @@
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -1311,13 +1311,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
         <v>46</v>
@@ -1347,7 +1347,7 @@
         <v>46</v>
       </c>
       <c r="N18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O18" t="s">
         <v>47</v>
@@ -1358,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
@@ -1367,10 +1367,10 @@
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -1391,13 +1391,13 @@
         <v>46</v>
       </c>
       <c r="M19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N19" t="s">
         <v>46</v>
       </c>
       <c r="O19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1405,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
@@ -1414,37 +1414,37 @@
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s">
         <v>46</v>
       </c>
       <c r="L20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N20" t="s">
         <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s">
         <v>46</v>
@@ -1491,7 +1491,7 @@
         <v>51</v>
       </c>
       <c r="O21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1511,7 +1511,7 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -1529,13 +1529,13 @@
         <v>46</v>
       </c>
       <c r="L22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O22" t="s">
         <v>46</v>
@@ -1546,16 +1546,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
         <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
         <v>46</v>
@@ -1570,10 +1570,10 @@
         <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L23" t="s">
         <v>46</v>
@@ -1593,13 +1593,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
         <v>47</v>
@@ -1608,22 +1608,22 @@
         <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M24" t="s">
         <v>46</v>
@@ -1640,7 +1640,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
@@ -1649,7 +1649,7 @@
         <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
         <v>46</v>
@@ -1658,10 +1658,10 @@
         <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J25" t="s">
         <v>46</v>
@@ -1673,13 +1673,13 @@
         <v>46</v>
       </c>
       <c r="M25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1714,7 +1714,7 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L26" t="s">
         <v>46</v>
@@ -1734,16 +1734,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
         <v>48</v>
       </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
         <v>46</v>
@@ -1761,19 +1761,19 @@
         <v>46</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L27" t="s">
         <v>46</v>
       </c>
       <c r="M27" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" t="s">
         <v>50</v>
-      </c>
-      <c r="N27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O27" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1793,19 +1793,19 @@
         <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s">
         <v>46</v>
@@ -1814,13 +1814,13 @@
         <v>46</v>
       </c>
       <c r="M28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N28" t="s">
         <v>46</v>
       </c>
       <c r="O28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1834,23 +1834,23 @@
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" t="s">
         <v>48</v>
       </c>
-      <c r="F29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s">
-        <v>46</v>
-      </c>
       <c r="J29" t="s">
         <v>51</v>
       </c>
@@ -1858,16 +1858,16 @@
         <v>46</v>
       </c>
       <c r="L29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M29" t="s">
         <v>48</v>
       </c>
       <c r="N29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1878,13 +1878,13 @@
         <v>50</v>
       </c>
       <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
         <v>48</v>
       </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
         <v>46</v>
@@ -1893,7 +1893,7 @@
         <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>46</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s">
         <v>46</v>
@@ -1958,7 +1958,7 @@
         <v>46</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O31" t="s">
         <v>46</v>
@@ -1969,7 +1969,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
         <v>46</v>
@@ -1981,7 +1981,7 @@
         <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s">
         <v>51</v>
@@ -1996,10 +1996,10 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M32" t="s">
         <v>51</v>
@@ -2008,7 +2008,7 @@
         <v>46</v>
       </c>
       <c r="O32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -571,31 +571,31 @@
         <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
         <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
         <v>49</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
@@ -606,13 +606,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>49</v>
@@ -627,13 +627,13 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
         <v>46</v>
@@ -642,7 +642,7 @@
         <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
         <v>46</v>
@@ -665,22 +665,22 @@
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
         <v>46</v>
@@ -700,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -715,7 +715,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
@@ -730,16 +730,16 @@
         <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N5" t="s">
         <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -753,7 +753,7 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>49</v>
@@ -768,22 +768,22 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
         <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O6" t="s">
         <v>46</v>
@@ -794,46 +794,46 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
         <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -853,13 +853,13 @@
         <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
         <v>46</v>
@@ -868,19 +868,19 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -909,13 +909,13 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L9" t="s">
         <v>46</v>
@@ -924,7 +924,7 @@
         <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O9" t="s">
         <v>46</v>
@@ -944,7 +944,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
         <v>46</v>
@@ -956,7 +956,7 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
@@ -965,16 +965,16 @@
         <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -991,7 +991,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
         <v>46</v>
@@ -1018,10 +1018,10 @@
         <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1029,28 +1029,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
@@ -1065,10 +1065,10 @@
         <v>46</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1076,13 +1076,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
         <v>46</v>
@@ -1091,10 +1091,10 @@
         <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
         <v>46</v>
@@ -1103,13 +1103,13 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" t="s">
         <v>47</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13" t="s">
         <v>46</v>
@@ -1126,7 +1126,7 @@
         <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -1138,13 +1138,13 @@
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14" t="s">
         <v>47</v>
@@ -1156,13 +1156,13 @@
         <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N14" t="s">
         <v>46</v>
       </c>
       <c r="O14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1170,7 +1170,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1185,7 +1185,7 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
         <v>46</v>
@@ -1197,13 +1197,13 @@
         <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L15" t="s">
         <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N15" t="s">
         <v>46</v>
@@ -1217,19 +1217,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1238,7 +1238,7 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
@@ -1256,7 +1256,7 @@
         <v>46</v>
       </c>
       <c r="O16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1264,7 +1264,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
@@ -1273,10 +1273,10 @@
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -1297,10 +1297,10 @@
         <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O17" t="s">
         <v>46</v>
@@ -1314,7 +1314,7 @@
         <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
@@ -1326,7 +1326,7 @@
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
@@ -1338,7 +1338,7 @@
         <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L18" t="s">
         <v>46</v>
@@ -1347,10 +1347,10 @@
         <v>46</v>
       </c>
       <c r="N18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1358,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
@@ -1367,7 +1367,7 @@
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
         <v>46</v>
@@ -1376,7 +1376,7 @@
         <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
         <v>46</v>
@@ -1385,7 +1385,7 @@
         <v>46</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L19" t="s">
         <v>46</v>
@@ -1397,7 +1397,7 @@
         <v>46</v>
       </c>
       <c r="O19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1408,43 +1408,43 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s">
         <v>46</v>
       </c>
       <c r="L20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1455,40 +1455,40 @@
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O21" t="s">
         <v>46</v>
@@ -1514,13 +1514,13 @@
         <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s">
         <v>46</v>
@@ -1529,16 +1529,16 @@
         <v>46</v>
       </c>
       <c r="L22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1549,31 +1549,31 @@
         <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L23" t="s">
         <v>46</v>
@@ -1585,7 +1585,7 @@
         <v>46</v>
       </c>
       <c r="O23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1596,7 +1596,7 @@
         <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>47</v>
@@ -1605,13 +1605,13 @@
         <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
         <v>46</v>
@@ -1620,16 +1620,16 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L24" t="s">
         <v>46</v>
       </c>
       <c r="M24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O24" t="s">
         <v>46</v>
@@ -1640,29 +1640,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
       <c r="J25" t="s">
         <v>46</v>
       </c>
@@ -1673,13 +1673,13 @@
         <v>46</v>
       </c>
       <c r="M25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1696,34 +1696,34 @@
         <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
         <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
         <v>46</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" t="s">
         <v>48</v>
       </c>
-      <c r="L26" t="s">
-        <v>46</v>
-      </c>
       <c r="M26" t="s">
         <v>46</v>
       </c>
       <c r="N26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O26" t="s">
         <v>46</v>
@@ -1737,43 +1737,43 @@
         <v>46</v>
       </c>
       <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" t="s">
         <v>48</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" t="s">
-        <v>46</v>
-      </c>
-      <c r="M27" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O27" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1784,10 +1784,10 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
         <v>46</v>
@@ -1814,7 +1814,7 @@
         <v>46</v>
       </c>
       <c r="M28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N28" t="s">
         <v>46</v>
@@ -1828,7 +1828,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -1837,37 +1837,37 @@
         <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" t="s">
         <v>48</v>
       </c>
-      <c r="J29" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" t="s">
-        <v>46</v>
-      </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N29" t="s">
         <v>46</v>
       </c>
       <c r="O29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1875,40 +1875,40 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" t="s">
         <v>50</v>
-      </c>
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K30" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" t="s">
-        <v>46</v>
       </c>
       <c r="N30" t="s">
         <v>46</v>
@@ -1922,7 +1922,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
@@ -1946,13 +1946,13 @@
         <v>46</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K31" t="s">
         <v>46</v>
       </c>
       <c r="L31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M31" t="s">
         <v>46</v>
@@ -1961,7 +1961,7 @@
         <v>46</v>
       </c>
       <c r="O31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1975,19 +1975,19 @@
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
         <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s">
         <v>51</v>
@@ -1996,19 +1996,19 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M32" t="s">
         <v>51</v>
       </c>
       <c r="N32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="52">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -571,13 +571,13 @@
         <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
         <v>46</v>
@@ -586,19 +586,19 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -609,37 +609,37 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
         <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N3" t="s">
         <v>46</v>
@@ -653,10 +653,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -674,7 +674,7 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
@@ -683,16 +683,16 @@
         <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N4" t="s">
         <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -709,7 +709,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -721,7 +721,7 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
@@ -733,13 +733,13 @@
         <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -759,19 +759,19 @@
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
         <v>49</v>
@@ -786,7 +786,7 @@
         <v>46</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -794,13 +794,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -809,31 +809,31 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
         <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N7" t="s">
         <v>49</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -841,46 +841,46 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
         <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N8" t="s">
         <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -891,7 +891,7 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
@@ -912,10 +912,10 @@
         <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s">
         <v>46</v>
@@ -924,7 +924,7 @@
         <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O9" t="s">
         <v>46</v>
@@ -944,7 +944,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>46</v>
@@ -959,22 +959,22 @@
         <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s">
         <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -1003,7 +1003,7 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
@@ -1018,7 +1018,7 @@
         <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O11" t="s">
         <v>46</v>
@@ -1029,22 +1029,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
         <v>46</v>
@@ -1059,10 +1059,10 @@
         <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N12" t="s">
         <v>46</v>
@@ -1076,37 +1076,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
         <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
         <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
@@ -1123,10 +1123,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -1135,7 +1135,7 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1147,16 +1147,16 @@
         <v>46</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14" t="s">
         <v>46</v>
@@ -1176,10 +1176,10 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
         <v>46</v>
@@ -1197,16 +1197,16 @@
         <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" t="s">
         <v>46</v>
@@ -1217,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>46</v>
@@ -1241,22 +1241,22 @@
         <v>46</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16" t="s">
         <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
@@ -1297,10 +1297,10 @@
         <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O17" t="s">
         <v>46</v>
@@ -1311,28 +1311,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J18" t="s">
         <v>46</v>
@@ -1347,7 +1347,7 @@
         <v>46</v>
       </c>
       <c r="N18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O18" t="s">
         <v>46</v>
@@ -1373,22 +1373,22 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M19" t="s">
         <v>46</v>
@@ -1408,13 +1408,13 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
         <v>46</v>
@@ -1426,7 +1426,7 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
@@ -1441,10 +1441,10 @@
         <v>46</v>
       </c>
       <c r="N20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1452,10 +1452,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
@@ -1467,31 +1467,31 @@
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
         <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M21" t="s">
         <v>47</v>
       </c>
       <c r="N21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1514,7 +1514,7 @@
         <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
         <v>47</v>
@@ -1529,7 +1529,7 @@
         <v>46</v>
       </c>
       <c r="L22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M22" t="s">
         <v>46</v>
@@ -1546,7 +1546,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
@@ -1561,19 +1561,19 @@
         <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J23" t="s">
         <v>46</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L23" t="s">
         <v>46</v>
@@ -1585,7 +1585,7 @@
         <v>46</v>
       </c>
       <c r="O23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1596,22 +1596,22 @@
         <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
         <v>46</v>
@@ -1626,10 +1626,10 @@
         <v>46</v>
       </c>
       <c r="M24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O24" t="s">
         <v>46</v>
@@ -1640,19 +1640,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -1661,25 +1661,25 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" t="s">
         <v>48</v>
       </c>
-      <c r="J25" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" t="s">
-        <v>46</v>
-      </c>
       <c r="L25" t="s">
         <v>46</v>
       </c>
       <c r="M25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N25" t="s">
         <v>46</v>
       </c>
       <c r="O25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1702,7 +1702,7 @@
         <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
         <v>48</v>
@@ -1711,19 +1711,19 @@
         <v>46</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s">
         <v>46</v>
       </c>
       <c r="L26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M26" t="s">
         <v>46</v>
       </c>
       <c r="N26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O26" t="s">
         <v>46</v>
@@ -1737,13 +1737,13 @@
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
         <v>46</v>
@@ -1770,10 +1770,10 @@
         <v>46</v>
       </c>
       <c r="N27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1781,29 +1781,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
         <v>48</v>
       </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s">
-        <v>46</v>
-      </c>
       <c r="J28" t="s">
         <v>46</v>
       </c>
@@ -1814,13 +1814,13 @@
         <v>46</v>
       </c>
       <c r="M28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N28" t="s">
         <v>46</v>
       </c>
       <c r="O28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1828,19 +1828,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
         <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -1849,19 +1849,19 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N29" t="s">
         <v>46</v>
@@ -1881,7 +1881,7 @@
         <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
         <v>46</v>
@@ -1905,7 +1905,7 @@
         <v>46</v>
       </c>
       <c r="L30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M30" t="s">
         <v>50</v>
@@ -1922,7 +1922,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
@@ -1937,7 +1937,7 @@
         <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>46</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s">
         <v>46</v>
@@ -1955,13 +1955,13 @@
         <v>46</v>
       </c>
       <c r="M31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N31" t="s">
         <v>46</v>
       </c>
       <c r="O31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1972,13 +1972,13 @@
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
         <v>46</v>
@@ -1987,16 +1987,16 @@
         <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J32" t="s">
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L32" t="s">
         <v>46</v>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="52">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -592,7 +592,7 @@
         <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s">
         <v>46</v>
@@ -621,7 +621,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
@@ -639,13 +639,13 @@
         <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
         <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -659,7 +659,7 @@
         <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
@@ -668,7 +668,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
@@ -677,19 +677,19 @@
         <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
         <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O4" t="s">
         <v>49</v>
@@ -700,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -715,10 +715,10 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
@@ -730,7 +730,7 @@
         <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
         <v>46</v>
@@ -750,28 +750,28 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
         <v>49</v>
@@ -786,7 +786,7 @@
         <v>46</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -794,46 +794,46 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
         <v>51</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" t="s">
         <v>51</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -841,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
@@ -850,7 +850,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -859,28 +859,28 @@
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
         <v>51</v>
       </c>
       <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
         <v>51</v>
-      </c>
-      <c r="K8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" t="s">
-        <v>47</v>
       </c>
       <c r="N8" t="s">
         <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -900,7 +900,7 @@
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -924,7 +924,7 @@
         <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O9" t="s">
         <v>46</v>
@@ -950,7 +950,7 @@
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
         <v>46</v>
@@ -968,7 +968,7 @@
         <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
         <v>46</v>
@@ -985,13 +985,13 @@
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>46</v>
@@ -1041,7 +1041,7 @@
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
@@ -1050,25 +1050,25 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s">
         <v>47</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N12" t="s">
         <v>46</v>
       </c>
       <c r="O12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1091,22 +1091,22 @@
         <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
         <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
         <v>47</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
@@ -1123,10 +1123,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -1135,25 +1135,25 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
         <v>46</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s">
         <v>46</v>
@@ -1162,7 +1162,7 @@
         <v>46</v>
       </c>
       <c r="O14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
         <v>46</v>
@@ -1235,16 +1235,16 @@
         <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
         <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
         <v>46</v>
@@ -1253,10 +1253,10 @@
         <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1279,7 +1279,7 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
         <v>47</v>
@@ -1297,13 +1297,13 @@
         <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17" t="s">
         <v>47</v>
       </c>
       <c r="O17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1320,7 +1320,7 @@
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
@@ -1332,7 +1332,7 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" t="s">
         <v>46</v>
@@ -1344,10 +1344,10 @@
         <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O18" t="s">
         <v>46</v>
@@ -1358,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
@@ -1367,28 +1367,28 @@
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s">
         <v>46</v>
       </c>
       <c r="L19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M19" t="s">
         <v>46</v>
@@ -1397,7 +1397,7 @@
         <v>46</v>
       </c>
       <c r="O19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1405,13 +1405,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
         <v>47</v>
@@ -1420,22 +1420,22 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M20" t="s">
         <v>46</v>
@@ -1452,46 +1452,46 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
         <v>51</v>
       </c>
       <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" t="s">
         <v>51</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" t="s">
         <v>51</v>
       </c>
-      <c r="K21" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" t="s">
-        <v>51</v>
-      </c>
-      <c r="M21" t="s">
-        <v>47</v>
-      </c>
       <c r="N21" t="s">
         <v>46</v>
       </c>
       <c r="O21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1499,13 +1499,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
@@ -1517,10 +1517,10 @@
         <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J22" t="s">
         <v>46</v>
@@ -1546,10 +1546,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
@@ -1558,7 +1558,7 @@
         <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -1579,10 +1579,10 @@
         <v>46</v>
       </c>
       <c r="M23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O23" t="s">
         <v>46</v>
@@ -1608,7 +1608,7 @@
         <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
@@ -1617,7 +1617,7 @@
         <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s">
         <v>46</v>
@@ -1629,7 +1629,7 @@
         <v>46</v>
       </c>
       <c r="N24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O24" t="s">
         <v>46</v>
@@ -1640,7 +1640,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
@@ -1649,10 +1649,10 @@
         <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -1661,25 +1661,25 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J25" t="s">
         <v>46</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L25" t="s">
         <v>46</v>
       </c>
       <c r="M25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N25" t="s">
         <v>46</v>
       </c>
       <c r="O25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1693,7 +1693,7 @@
         <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
         <v>48</v>
@@ -1702,7 +1702,7 @@
         <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s">
         <v>48</v>
@@ -1711,7 +1711,7 @@
         <v>46</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s">
         <v>46</v>
@@ -1767,10 +1767,10 @@
         <v>46</v>
       </c>
       <c r="M27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O27" t="s">
         <v>46</v>
@@ -1781,7 +1781,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>46</v>
@@ -1793,7 +1793,7 @@
         <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -1808,7 +1808,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L28" t="s">
         <v>46</v>
@@ -1820,7 +1820,7 @@
         <v>46</v>
       </c>
       <c r="O28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1828,10 +1828,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
@@ -1867,7 +1867,7 @@
         <v>46</v>
       </c>
       <c r="O29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1878,10 +1878,10 @@
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
         <v>46</v>
@@ -1908,13 +1908,13 @@
         <v>48</v>
       </c>
       <c r="M30" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" t="s">
         <v>50</v>
-      </c>
-      <c r="N30" t="s">
-        <v>46</v>
-      </c>
-      <c r="O30" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1922,7 +1922,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
@@ -1937,7 +1937,7 @@
         <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>46</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K31" t="s">
         <v>46</v>
@@ -1955,7 +1955,7 @@
         <v>46</v>
       </c>
       <c r="M31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N31" t="s">
         <v>46</v>
@@ -1969,13 +1969,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
         <v>46</v>
@@ -1993,7 +1993,7 @@
         <v>46</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s">
         <v>46</v>
@@ -2002,13 +2002,13 @@
         <v>46</v>
       </c>
       <c r="M32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="53">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -154,7 +154,7 @@
     <t>SaturdayPM</t>
   </si>
   <si>
-    <t xml:space="preserve">     </t>
+    <t>-</t>
   </si>
   <si>
     <t>Server</t>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Expo</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
@@ -565,10 +568,10 @@
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -577,7 +580,7 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
         <v>46</v>
@@ -606,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
@@ -618,34 +621,34 @@
         <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
         <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -653,16 +656,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
         <v>46</v>
@@ -677,7 +680,7 @@
         <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
@@ -686,13 +689,13 @@
         <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -709,22 +712,22 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
         <v>46</v>
@@ -750,19 +753,19 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
@@ -786,7 +789,7 @@
         <v>46</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -794,37 +797,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
         <v>47</v>
@@ -833,7 +836,7 @@
         <v>47</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -841,10 +844,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
@@ -856,13 +859,13 @@
         <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
         <v>46</v>
@@ -871,7 +874,7 @@
         <v>46</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
@@ -897,10 +900,10 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -924,10 +927,10 @@
         <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -935,13 +938,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
@@ -950,16 +953,16 @@
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
         <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
         <v>46</v>
@@ -968,7 +971,7 @@
         <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
         <v>46</v>
@@ -982,28 +985,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
@@ -1038,10 +1041,10 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
@@ -1050,7 +1053,7 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
@@ -1059,7 +1062,7 @@
         <v>47</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M12" t="s">
         <v>46</v>
@@ -1088,7 +1091,7 @@
         <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1100,13 +1103,13 @@
         <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
@@ -1126,7 +1129,7 @@
         <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -1141,13 +1144,13 @@
         <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s">
         <v>46</v>
@@ -1156,10 +1159,10 @@
         <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O14" t="s">
         <v>46</v>
@@ -1170,7 +1173,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1182,13 +1185,13 @@
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
         <v>46</v>
@@ -1197,7 +1200,7 @@
         <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L15" t="s">
         <v>47</v>
@@ -1206,10 +1209,10 @@
         <v>46</v>
       </c>
       <c r="N15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1226,7 +1229,7 @@
         <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
         <v>46</v>
@@ -1235,28 +1238,28 @@
         <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s">
         <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s">
         <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1267,7 +1270,7 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -1282,7 +1285,7 @@
         <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
@@ -1297,13 +1300,13 @@
         <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1311,13 +1314,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
         <v>46</v>
@@ -1326,13 +1329,13 @@
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J18" t="s">
         <v>46</v>
@@ -1344,7 +1347,7 @@
         <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N18" t="s">
         <v>46</v>
@@ -1382,7 +1385,7 @@
         <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s">
         <v>46</v>
@@ -1397,7 +1400,7 @@
         <v>46</v>
       </c>
       <c r="O19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1405,7 +1408,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
@@ -1414,28 +1417,28 @@
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M20" t="s">
         <v>46</v>
@@ -1452,46 +1455,46 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s">
         <v>51</v>
       </c>
       <c r="L21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M21" t="s">
         <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1499,7 +1502,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
@@ -1508,7 +1511,7 @@
         <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
         <v>46</v>
@@ -1526,10 +1529,10 @@
         <v>46</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M22" t="s">
         <v>46</v>
@@ -1538,7 +1541,7 @@
         <v>46</v>
       </c>
       <c r="O22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1546,7 +1549,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>47</v>
@@ -1558,13 +1561,13 @@
         <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
         <v>46</v>
@@ -1573,7 +1576,7 @@
         <v>46</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L23" t="s">
         <v>46</v>
@@ -1582,7 +1585,7 @@
         <v>47</v>
       </c>
       <c r="N23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O23" t="s">
         <v>46</v>
@@ -1593,10 +1596,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
@@ -1608,7 +1611,7 @@
         <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
@@ -1617,10 +1620,10 @@
         <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L24" t="s">
         <v>46</v>
@@ -1629,10 +1632,10 @@
         <v>46</v>
       </c>
       <c r="N24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1640,37 +1643,37 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s">
         <v>46</v>
       </c>
       <c r="L25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M25" t="s">
         <v>47</v>
@@ -1687,13 +1690,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
         <v>48</v>
@@ -1702,10 +1705,10 @@
         <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
         <v>46</v>
@@ -1714,7 +1717,7 @@
         <v>48</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L26" t="s">
         <v>46</v>
@@ -1737,43 +1740,43 @@
         <v>46</v>
       </c>
       <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" t="s">
         <v>48</v>
       </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" t="s">
-        <v>46</v>
-      </c>
-      <c r="M27" t="s">
-        <v>50</v>
-      </c>
       <c r="N27" t="s">
         <v>46</v>
       </c>
       <c r="O27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1781,7 +1784,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
         <v>46</v>
@@ -1790,28 +1793,28 @@
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
         <v>48</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
       <c r="I28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" t="s">
         <v>48</v>
-      </c>
-      <c r="J28" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" t="s">
-        <v>46</v>
       </c>
       <c r="M28" t="s">
         <v>46</v>
@@ -1831,7 +1834,7 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
@@ -1867,7 +1870,7 @@
         <v>46</v>
       </c>
       <c r="O29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1878,40 +1881,40 @@
         <v>46</v>
       </c>
       <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" t="s">
         <v>50</v>
       </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K30" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" t="s">
-        <v>48</v>
-      </c>
-      <c r="M30" t="s">
-        <v>48</v>
-      </c>
       <c r="N30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O30" t="s">
         <v>50</v>
@@ -1922,20 +1925,20 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
         <v>48</v>
       </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" t="s">
-        <v>46</v>
-      </c>
       <c r="G31" t="s">
         <v>46</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J31" t="s">
         <v>46</v>
@@ -1958,7 +1961,7 @@
         <v>46</v>
       </c>
       <c r="N31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O31" t="s">
         <v>46</v>
@@ -1969,10 +1972,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>46</v>
@@ -1984,10 +1987,10 @@
         <v>46</v>
       </c>
       <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
         <v>51</v>
-      </c>
-      <c r="H32" t="s">
-        <v>46</v>
       </c>
       <c r="I32" t="s">
         <v>46</v>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -562,28 +562,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
@@ -592,16 +592,16 @@
         <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
         <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
@@ -621,22 +621,22 @@
         <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
         <v>46</v>
@@ -645,10 +645,10 @@
         <v>49</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -656,7 +656,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -674,13 +674,13 @@
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
         <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
@@ -692,7 +692,7 @@
         <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O4" t="s">
         <v>46</v>
@@ -703,16 +703,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -727,13 +727,13 @@
         <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
         <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
         <v>46</v>
@@ -762,7 +762,7 @@
         <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
@@ -771,7 +771,7 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
@@ -789,7 +789,7 @@
         <v>46</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -797,46 +797,46 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
       </c>
       <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -844,10 +844,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
@@ -856,34 +856,34 @@
         <v>47</v>
       </c>
       <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>51</v>
       </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
         <v>46</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -891,7 +891,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -912,13 +912,13 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L9" t="s">
         <v>46</v>
@@ -927,10 +927,10 @@
         <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -938,13 +938,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
@@ -956,25 +956,25 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
         <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
         <v>46</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s">
         <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O10" t="s">
         <v>46</v>
@@ -1000,13 +1000,13 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
@@ -1015,7 +1015,7 @@
         <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M11" t="s">
         <v>46</v>
@@ -1032,22 +1032,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
         <v>46</v>
@@ -1056,13 +1056,13 @@
         <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M12" t="s">
         <v>46</v>
@@ -1071,7 +1071,7 @@
         <v>46</v>
       </c>
       <c r="O12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1085,7 +1085,7 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
         <v>46</v>
@@ -1103,7 +1103,7 @@
         <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
         <v>46</v>
@@ -1115,7 +1115,7 @@
         <v>46</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O13" t="s">
         <v>46</v>
@@ -1126,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>47</v>
@@ -1135,25 +1135,25 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14" t="s">
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L14" t="s">
         <v>46</v>
@@ -1162,10 +1162,10 @@
         <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1173,13 +1173,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
@@ -1188,7 +1188,7 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
         <v>46</v>
@@ -1200,10 +1200,10 @@
         <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s">
         <v>46</v>
@@ -1212,7 +1212,7 @@
         <v>46</v>
       </c>
       <c r="O15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1223,7 +1223,7 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
@@ -1235,7 +1235,7 @@
         <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
         <v>46</v>
@@ -1244,13 +1244,13 @@
         <v>46</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16" t="s">
         <v>46</v>
@@ -1267,7 +1267,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
@@ -1300,7 +1300,7 @@
         <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17" t="s">
         <v>46</v>
@@ -1320,7 +1320,7 @@
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
         <v>46</v>
@@ -1341,13 +1341,13 @@
         <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L18" t="s">
         <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N18" t="s">
         <v>46</v>
@@ -1361,22 +1361,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
         <v>46</v>
@@ -1385,7 +1385,7 @@
         <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s">
         <v>46</v>
@@ -1400,7 +1400,7 @@
         <v>46</v>
       </c>
       <c r="O19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1429,7 +1429,7 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
@@ -1464,34 +1464,34 @@
         <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s">
         <v>51</v>
       </c>
       <c r="L21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M21" t="s">
         <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O21" t="s">
         <v>51</v>
@@ -1502,16 +1502,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
         <v>46</v>
@@ -1529,16 +1529,16 @@
         <v>46</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O22" t="s">
         <v>46</v>
@@ -1576,7 +1576,7 @@
         <v>46</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L23" t="s">
         <v>46</v>
@@ -1596,7 +1596,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
@@ -1605,37 +1605,37 @@
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
         <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L24" t="s">
         <v>46</v>
       </c>
       <c r="M24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1643,7 +1643,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
@@ -1655,34 +1655,34 @@
         <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
         <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1690,7 +1690,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
@@ -1699,28 +1699,28 @@
         <v>46</v>
       </c>
       <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
         <v>48</v>
       </c>
-      <c r="F26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
       <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" t="s">
         <v>48</v>
-      </c>
-      <c r="K26" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" t="s">
-        <v>46</v>
       </c>
       <c r="M26" t="s">
         <v>46</v>
@@ -1770,13 +1770,13 @@
         <v>46</v>
       </c>
       <c r="M27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N27" t="s">
         <v>46</v>
       </c>
       <c r="O27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1784,10 +1784,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
@@ -1802,7 +1802,7 @@
         <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
         <v>46</v>
@@ -1814,7 +1814,7 @@
         <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M28" t="s">
         <v>46</v>
@@ -1823,7 +1823,7 @@
         <v>46</v>
       </c>
       <c r="O28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1834,7 +1834,7 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
@@ -1884,26 +1884,26 @@
         <v>46</v>
       </c>
       <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s">
         <v>48</v>
       </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" t="s">
-        <v>46</v>
-      </c>
       <c r="K30" t="s">
         <v>46</v>
       </c>
@@ -1911,13 +1911,13 @@
         <v>46</v>
       </c>
       <c r="M30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N30" t="s">
         <v>46</v>
       </c>
       <c r="O30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1931,10 +1931,10 @@
         <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
         <v>48</v>
@@ -1946,25 +1946,25 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31" t="s">
         <v>48</v>
-      </c>
-      <c r="J31" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" t="s">
-        <v>46</v>
-      </c>
-      <c r="N31" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1972,46 +1972,46 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" t="s">
         <v>51</v>
       </c>
-      <c r="C32" t="s">
+      <c r="G32" t="s">
         <v>51</v>
       </c>
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
       <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" t="s">
         <v>51</v>
       </c>
-      <c r="I32" t="s">
-        <v>46</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="N32" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32" t="s">
         <v>51</v>
-      </c>
-      <c r="K32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" t="s">
-        <v>46</v>
-      </c>
-      <c r="M32" t="s">
-        <v>46</v>
-      </c>
-      <c r="N32" t="s">
-        <v>46</v>
-      </c>
-      <c r="O32" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="53">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -562,16 +562,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -580,16 +580,16 @@
         <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
         <v>49</v>
@@ -612,13 +612,13 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -642,13 +642,13 @@
         <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
         <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -659,13 +659,13 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
         <v>46</v>
@@ -674,10 +674,10 @@
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
@@ -689,7 +689,7 @@
         <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N4" t="s">
         <v>49</v>
@@ -703,16 +703,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -742,7 +742,7 @@
         <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -762,7 +762,7 @@
         <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
@@ -777,13 +777,13 @@
         <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
         <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N6" t="s">
         <v>46</v>
@@ -800,43 +800,43 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" t="s">
-        <v>49</v>
-      </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -844,46 +844,46 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" t="s">
         <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -891,7 +891,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -900,7 +900,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
         <v>46</v>
@@ -912,13 +912,13 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s">
         <v>46</v>
@@ -930,7 +930,7 @@
         <v>46</v>
       </c>
       <c r="O9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -959,10 +959,10 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
         <v>46</v>
@@ -974,10 +974,10 @@
         <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -985,19 +985,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1006,7 +1006,7 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
@@ -1024,7 +1024,7 @@
         <v>46</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
         <v>46</v>
@@ -1079,7 +1079,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
@@ -1088,7 +1088,7 @@
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
         <v>46</v>
@@ -1106,7 +1106,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s">
         <v>46</v>
@@ -1129,13 +1129,13 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
         <v>46</v>
@@ -1144,7 +1144,7 @@
         <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
         <v>46</v>
@@ -1153,19 +1153,19 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L14" t="s">
         <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14" t="s">
         <v>46</v>
       </c>
       <c r="O14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1179,7 +1179,7 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
@@ -1188,10 +1188,10 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
         <v>46</v>
@@ -1220,10 +1220,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
@@ -1241,10 +1241,10 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
@@ -1256,10 +1256,10 @@
         <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1267,13 +1267,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>46</v>
@@ -1282,25 +1282,25 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s">
         <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L17" t="s">
         <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N17" t="s">
         <v>46</v>
@@ -1314,13 +1314,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
         <v>46</v>
@@ -1335,22 +1335,22 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L18" t="s">
         <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O18" t="s">
         <v>46</v>
@@ -1373,13 +1373,13 @@
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
         <v>46</v>
@@ -1397,10 +1397,10 @@
         <v>46</v>
       </c>
       <c r="N19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1411,13 +1411,13 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
         <v>46</v>
@@ -1429,25 +1429,25 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L20" t="s">
         <v>46</v>
       </c>
       <c r="M20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N20" t="s">
         <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1455,10 +1455,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
@@ -1476,13 +1476,13 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L21" t="s">
         <v>47</v>
@@ -1491,7 +1491,7 @@
         <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O21" t="s">
         <v>51</v>
@@ -1511,7 +1511,7 @@
         <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
         <v>46</v>
@@ -1535,10 +1535,10 @@
         <v>46</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O22" t="s">
         <v>46</v>
@@ -1552,7 +1552,7 @@
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
@@ -1561,13 +1561,13 @@
         <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
         <v>46</v>
@@ -1576,7 +1576,7 @@
         <v>46</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L23" t="s">
         <v>46</v>
@@ -1596,7 +1596,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
@@ -1605,7 +1605,7 @@
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
         <v>47</v>
@@ -1617,10 +1617,10 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s">
         <v>46</v>
@@ -1632,7 +1632,7 @@
         <v>47</v>
       </c>
       <c r="N24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O24" t="s">
         <v>46</v>
@@ -1643,10 +1643,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
         <v>46</v>
@@ -1655,31 +1655,31 @@
         <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
         <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L25" t="s">
         <v>46</v>
       </c>
       <c r="M25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O25" t="s">
         <v>47</v>
@@ -1690,40 +1690,40 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" t="s">
         <v>48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" t="s">
-        <v>48</v>
-      </c>
-      <c r="M26" t="s">
-        <v>46</v>
       </c>
       <c r="N26" t="s">
         <v>46</v>
@@ -1793,13 +1793,13 @@
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
         <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s">
         <v>46</v>
@@ -1808,10 +1808,10 @@
         <v>46</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L28" t="s">
         <v>46</v>
@@ -1834,7 +1834,7 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
@@ -1867,7 +1867,7 @@
         <v>46</v>
       </c>
       <c r="N29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O29" t="s">
         <v>46</v>
@@ -1896,28 +1896,28 @@
         <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" t="s">
+        <v>46</v>
+      </c>
+      <c r="O30" t="s">
         <v>48</v>
-      </c>
-      <c r="K30" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" t="s">
-        <v>46</v>
-      </c>
-      <c r="N30" t="s">
-        <v>46</v>
-      </c>
-      <c r="O30" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1925,7 +1925,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
@@ -1934,28 +1934,28 @@
         <v>48</v>
       </c>
       <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" t="s">
         <v>48</v>
-      </c>
-      <c r="F31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" t="s">
-        <v>46</v>
       </c>
       <c r="M31" t="s">
         <v>50</v>
@@ -1964,7 +1964,7 @@
         <v>46</v>
       </c>
       <c r="O31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1978,7 +1978,7 @@
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
         <v>46</v>
@@ -1990,7 +1990,7 @@
         <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s">
         <v>46</v>
@@ -2002,16 +2002,16 @@
         <v>46</v>
       </c>
       <c r="L32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" t="s">
         <v>51</v>
       </c>
-      <c r="N32" t="s">
-        <v>46</v>
-      </c>
       <c r="O32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="52">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>Bar</t>
-  </si>
-  <si>
-    <t>Runner</t>
   </si>
   <si>
     <t>Expo</t>
@@ -512,7 +509,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
@@ -562,13 +559,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>49</v>
@@ -577,10 +574,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
         <v>46</v>
@@ -589,19 +586,19 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
         <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -609,13 +606,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>49</v>
@@ -627,7 +624,7 @@
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
         <v>46</v>
@@ -645,7 +642,7 @@
         <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
         <v>46</v>
@@ -656,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -668,7 +665,7 @@
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -680,10 +677,10 @@
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s">
         <v>46</v>
@@ -692,10 +689,10 @@
         <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -703,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -718,7 +715,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
@@ -727,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
         <v>46</v>
@@ -739,10 +736,10 @@
         <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -753,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -765,7 +762,7 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
@@ -780,10 +777,10 @@
         <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
         <v>46</v>
@@ -797,10 +794,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -809,10 +806,10 @@
         <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
@@ -830,13 +827,13 @@
         <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -844,46 +841,46 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
         <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
         <v>47</v>
       </c>
       <c r="O8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -897,10 +894,10 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
         <v>46</v>
@@ -918,19 +915,19 @@
         <v>47</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
         <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -950,7 +947,7 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -977,7 +974,7 @@
         <v>46</v>
       </c>
       <c r="O10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -985,25 +982,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
         <v>46</v>
@@ -1015,7 +1012,7 @@
         <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M11" t="s">
         <v>46</v>
@@ -1024,7 +1021,7 @@
         <v>46</v>
       </c>
       <c r="O11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1035,22 +1032,22 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
         <v>46</v>
@@ -1059,7 +1056,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s">
         <v>47</v>
@@ -1071,7 +1068,7 @@
         <v>46</v>
       </c>
       <c r="O12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1082,13 +1079,13 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
         <v>46</v>
@@ -1106,19 +1103,19 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1126,10 +1123,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -1144,7 +1141,7 @@
         <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
         <v>46</v>
@@ -1165,7 +1162,7 @@
         <v>46</v>
       </c>
       <c r="O14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1173,7 +1170,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1188,10 +1185,10 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
         <v>46</v>
@@ -1200,13 +1197,13 @@
         <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L15" t="s">
         <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N15" t="s">
         <v>46</v>
@@ -1220,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>46</v>
@@ -1229,13 +1226,13 @@
         <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
         <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
         <v>46</v>
@@ -1244,10 +1241,10 @@
         <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
         <v>46</v>
@@ -1267,28 +1264,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s">
         <v>46</v>
@@ -1300,7 +1297,7 @@
         <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17" t="s">
         <v>46</v>
@@ -1314,16 +1311,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
@@ -1335,22 +1332,22 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L18" t="s">
         <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O18" t="s">
         <v>46</v>
@@ -1361,25 +1358,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
         <v>46</v>
@@ -1411,16 +1408,16 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -1432,10 +1429,10 @@
         <v>46</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L20" t="s">
         <v>46</v>
@@ -1444,7 +1441,7 @@
         <v>47</v>
       </c>
       <c r="N20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O20" t="s">
         <v>47</v>
@@ -1455,16 +1452,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
         <v>46</v>
@@ -1476,25 +1473,25 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s">
         <v>46</v>
       </c>
       <c r="L21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N21" t="s">
         <v>46</v>
       </c>
       <c r="O21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1511,7 +1508,7 @@
         <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
         <v>46</v>
@@ -1520,7 +1517,7 @@
         <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
         <v>46</v>
@@ -1535,10 +1532,10 @@
         <v>46</v>
       </c>
       <c r="M22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O22" t="s">
         <v>46</v>
@@ -1552,7 +1549,7 @@
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
@@ -1579,16 +1576,16 @@
         <v>46</v>
       </c>
       <c r="L23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N23" t="s">
         <v>46</v>
       </c>
       <c r="O23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1599,7 +1596,7 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
@@ -1608,16 +1605,16 @@
         <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
@@ -1629,7 +1626,7 @@
         <v>46</v>
       </c>
       <c r="M24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N24" t="s">
         <v>46</v>
@@ -1643,34 +1640,34 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J25" t="s">
         <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L25" t="s">
         <v>46</v>
@@ -1682,7 +1679,7 @@
         <v>46</v>
       </c>
       <c r="O25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1690,7 +1687,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
         <v>46</v>
@@ -1708,7 +1705,7 @@
         <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
         <v>46</v>
@@ -1723,7 +1720,7 @@
         <v>46</v>
       </c>
       <c r="M26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N26" t="s">
         <v>46</v>
@@ -1740,7 +1737,7 @@
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
@@ -1773,7 +1770,7 @@
         <v>46</v>
       </c>
       <c r="N27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O27" t="s">
         <v>46</v>
@@ -1787,19 +1784,19 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
       </c>
       <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" t="s">
         <v>48</v>
       </c>
-      <c r="F28" t="s">
-        <v>46</v>
-      </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
         <v>46</v>
@@ -1811,19 +1808,19 @@
         <v>48</v>
       </c>
       <c r="K28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" t="s">
         <v>48</v>
       </c>
-      <c r="L28" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" t="s">
-        <v>46</v>
-      </c>
       <c r="N28" t="s">
         <v>46</v>
       </c>
       <c r="O28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1834,11 +1831,11 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
         <v>48</v>
       </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
       <c r="E29" t="s">
         <v>46</v>
       </c>
@@ -1858,7 +1855,7 @@
         <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L29" t="s">
         <v>46</v>
@@ -1867,7 +1864,7 @@
         <v>46</v>
       </c>
       <c r="N29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O29" t="s">
         <v>46</v>
@@ -1887,7 +1884,7 @@
         <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
         <v>46</v>
@@ -1896,7 +1893,7 @@
         <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
         <v>48</v>
@@ -1931,16 +1928,16 @@
         <v>46</v>
       </c>
       <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
         <v>48</v>
-      </c>
-      <c r="E31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
       </c>
       <c r="H31" t="s">
         <v>46</v>
@@ -1958,7 +1955,7 @@
         <v>48</v>
       </c>
       <c r="M31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N31" t="s">
         <v>46</v>
@@ -1975,43 +1972,43 @@
         <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
         <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s">
         <v>46</v>
       </c>
       <c r="L32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="56">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -157,7 +157,19 @@
     <t>-</t>
   </si>
   <si>
-    <t>Server</t>
+    <t>1: Server</t>
+  </si>
+  <si>
+    <t>2: Server</t>
+  </si>
+  <si>
+    <t>3: Server</t>
+  </si>
+  <si>
+    <t>4: Server</t>
+  </si>
+  <si>
+    <t>5: Server</t>
   </si>
   <si>
     <t>H/G</t>
@@ -509,7 +521,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
@@ -559,28 +571,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
@@ -589,13 +601,13 @@
         <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
         <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
         <v>46</v>
@@ -606,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
@@ -615,7 +627,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -624,7 +636,7 @@
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
         <v>46</v>
@@ -633,16 +645,16 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
         <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
         <v>46</v>
@@ -653,10 +665,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -665,7 +677,7 @@
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -674,25 +686,25 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
         <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
         <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -703,7 +715,7 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -715,7 +727,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
@@ -724,7 +736,7 @@
         <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
         <v>46</v>
@@ -739,7 +751,7 @@
         <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -750,7 +762,7 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -765,7 +777,7 @@
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
         <v>46</v>
@@ -777,13 +789,13 @@
         <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
         <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
         <v>46</v>
@@ -797,25 +809,25 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
         <v>46</v>
@@ -827,13 +839,13 @@
         <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N7" t="s">
         <v>46</v>
       </c>
       <c r="O7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -841,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
@@ -850,34 +862,34 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
         <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O8" t="s">
         <v>50</v>
@@ -894,14 +906,14 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
@@ -912,13 +924,13 @@
         <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
         <v>46</v>
@@ -938,16 +950,16 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -956,19 +968,19 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N10" t="s">
         <v>46</v>
@@ -982,7 +994,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -1000,10 +1012,10 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
@@ -1029,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -1044,10 +1056,10 @@
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
         <v>46</v>
@@ -1056,19 +1068,19 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N12" t="s">
         <v>46</v>
       </c>
       <c r="O12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1076,13 +1088,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
         <v>46</v>
@@ -1106,7 +1118,7 @@
         <v>46</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
@@ -1115,7 +1127,7 @@
         <v>46</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1123,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>47</v>
@@ -1132,16 +1144,16 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
         <v>46</v>
@@ -1150,7 +1162,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L14" t="s">
         <v>46</v>
@@ -1162,7 +1174,7 @@
         <v>46</v>
       </c>
       <c r="O14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1170,7 +1182,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1185,7 +1197,7 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
         <v>46</v>
@@ -1197,13 +1209,13 @@
         <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L15" t="s">
         <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15" t="s">
         <v>46</v>
@@ -1220,25 +1232,25 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
       </c>
       <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
@@ -1247,16 +1259,16 @@
         <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N16" t="s">
         <v>46</v>
       </c>
       <c r="O16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1264,7 +1276,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
@@ -1273,7 +1285,7 @@
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
@@ -1285,13 +1297,13 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J17" t="s">
         <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L17" t="s">
         <v>46</v>
@@ -1300,7 +1312,7 @@
         <v>46</v>
       </c>
       <c r="N17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O17" t="s">
         <v>46</v>
@@ -1311,40 +1323,40 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" t="s">
         <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L18" t="s">
         <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N18" t="s">
         <v>46</v>
@@ -1358,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
@@ -1367,7 +1379,7 @@
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
         <v>46</v>
@@ -1394,7 +1406,7 @@
         <v>46</v>
       </c>
       <c r="N19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O19" t="s">
         <v>46</v>
@@ -1417,10 +1429,10 @@
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
         <v>46</v>
@@ -1429,7 +1441,7 @@
         <v>46</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s">
         <v>46</v>
@@ -1438,13 +1450,13 @@
         <v>46</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1452,13 +1464,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
         <v>46</v>
@@ -1482,13 +1494,13 @@
         <v>46</v>
       </c>
       <c r="L21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O21" t="s">
         <v>46</v>
@@ -1514,13 +1526,13 @@
         <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s">
         <v>46</v>
@@ -1532,13 +1544,13 @@
         <v>46</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1546,10 +1558,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
@@ -1570,22 +1582,22 @@
         <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1596,22 +1608,22 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
         <v>46</v>
@@ -1620,13 +1632,13 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L24" t="s">
         <v>46</v>
       </c>
       <c r="M24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N24" t="s">
         <v>46</v>
@@ -1640,31 +1652,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25" t="s">
         <v>46</v>
@@ -1687,13 +1699,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
         <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
         <v>46</v>
@@ -1705,7 +1717,7 @@
         <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I26" t="s">
         <v>46</v>
@@ -1737,7 +1749,7 @@
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
@@ -1749,13 +1761,13 @@
         <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s">
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s">
         <v>46</v>
@@ -1770,7 +1782,7 @@
         <v>46</v>
       </c>
       <c r="N27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O27" t="s">
         <v>46</v>
@@ -1781,10 +1793,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
@@ -1793,7 +1805,7 @@
         <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -1805,7 +1817,7 @@
         <v>46</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s">
         <v>46</v>
@@ -1814,10 +1826,10 @@
         <v>46</v>
       </c>
       <c r="M28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O28" t="s">
         <v>46</v>
@@ -1834,10 +1846,10 @@
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
         <v>46</v>
@@ -1852,10 +1864,10 @@
         <v>46</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L29" t="s">
         <v>46</v>
@@ -1884,7 +1896,7 @@
         <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
         <v>46</v>
@@ -1896,7 +1908,7 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J30" t="s">
         <v>46</v>
@@ -1908,13 +1920,13 @@
         <v>46</v>
       </c>
       <c r="M30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N30" t="s">
         <v>46</v>
       </c>
       <c r="O30" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1934,10 +1946,10 @@
         <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
         <v>46</v>
@@ -1949,10 +1961,10 @@
         <v>46</v>
       </c>
       <c r="K31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L31" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M31" t="s">
         <v>46</v>
@@ -1969,46 +1981,46 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="66">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -157,28 +157,58 @@
     <t>-</t>
   </si>
   <si>
-    <t>1: Server</t>
-  </si>
-  <si>
-    <t>2: Server</t>
-  </si>
-  <si>
-    <t>3: Server</t>
-  </si>
-  <si>
-    <t>4: Server</t>
-  </si>
-  <si>
-    <t>5: Server</t>
-  </si>
-  <si>
-    <t>H/G</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>Expo</t>
+    <t>10:00: 1</t>
+  </si>
+  <si>
+    <t>10:00: 2</t>
+  </si>
+  <si>
+    <t>10:00: 3</t>
+  </si>
+  <si>
+    <t>10:00: 4</t>
+  </si>
+  <si>
+    <t>10:00: 5</t>
+  </si>
+  <si>
+    <t>11:00: H/G</t>
+  </si>
+  <si>
+    <t>10:00: Bar</t>
+  </si>
+  <si>
+    <t>10:00: Expo</t>
+  </si>
+  <si>
+    <t>4:00: 1</t>
+  </si>
+  <si>
+    <t>4:00: 2</t>
+  </si>
+  <si>
+    <t>4:00: 3</t>
+  </si>
+  <si>
+    <t>4:00: 4</t>
+  </si>
+  <si>
+    <t>4:00: 5</t>
+  </si>
+  <si>
+    <t>4:00: H/G</t>
+  </si>
+  <si>
+    <t>4:00: Bar</t>
+  </si>
+  <si>
+    <t>4:00: Expo</t>
+  </si>
+  <si>
+    <t>5:00: 1</t>
+  </si>
+  <si>
+    <t>5:00: 2</t>
   </si>
   <si>
     <t>Name</t>
@@ -521,7 +551,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
@@ -571,14 +601,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
       <c r="E2" t="s">
         <v>46</v>
       </c>
@@ -586,13 +616,13 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
@@ -601,13 +631,13 @@
         <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
         <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
         <v>46</v>
@@ -627,11 +657,11 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
@@ -645,16 +675,16 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s">
         <v>53</v>
-      </c>
-      <c r="L3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
       </c>
       <c r="O3" t="s">
         <v>46</v>
@@ -668,7 +698,7 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -677,28 +707,28 @@
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
         <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="N4" t="s">
         <v>46</v>
@@ -715,31 +745,31 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>46</v>
@@ -748,10 +778,10 @@
         <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -780,7 +810,7 @@
         <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
@@ -795,7 +825,7 @@
         <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O6" t="s">
         <v>46</v>
@@ -806,46 +836,46 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
-        <v>46</v>
-      </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
         <v>46</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -853,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
@@ -862,37 +892,37 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" t="s">
         <v>47</v>
       </c>
-      <c r="J8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" t="s">
-        <v>46</v>
-      </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -906,22 +936,22 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
         <v>49</v>
@@ -930,13 +960,13 @@
         <v>46</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s">
         <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O9" t="s">
         <v>46</v>
@@ -950,13 +980,13 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>46</v>
@@ -974,13 +1004,13 @@
         <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s">
         <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N10" t="s">
         <v>46</v>
@@ -994,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -1012,10 +1042,10 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
@@ -1024,7 +1054,7 @@
         <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M11" t="s">
         <v>46</v>
@@ -1041,43 +1071,43 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" t="s">
-        <v>46</v>
       </c>
       <c r="O12" t="s">
         <v>46</v>
@@ -1088,16 +1118,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
         <v>46</v>
@@ -1118,7 +1148,7 @@
         <v>46</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
@@ -1138,19 +1168,19 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
         <v>46</v>
@@ -1162,7 +1192,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="L14" t="s">
         <v>46</v>
@@ -1174,7 +1204,7 @@
         <v>46</v>
       </c>
       <c r="O14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1182,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1194,19 +1224,19 @@
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s">
         <v>46</v>
@@ -1232,43 +1262,43 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N16" t="s">
         <v>46</v>
       </c>
       <c r="O16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1276,43 +1306,43 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" t="s">
-        <v>46</v>
-      </c>
       <c r="M17" t="s">
         <v>46</v>
       </c>
       <c r="N17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O17" t="s">
         <v>46</v>
@@ -1323,7 +1353,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
         <v>46</v>
@@ -1353,7 +1383,7 @@
         <v>46</v>
       </c>
       <c r="L18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M18" t="s">
         <v>46</v>
@@ -1373,7 +1403,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
@@ -1397,7 +1427,7 @@
         <v>46</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="L19" t="s">
         <v>46</v>
@@ -1417,7 +1447,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
@@ -1432,10 +1462,10 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s">
         <v>46</v>
@@ -1467,7 +1497,7 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
@@ -1479,7 +1509,7 @@
         <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>46</v>
@@ -1494,16 +1524,16 @@
         <v>46</v>
       </c>
       <c r="L21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M21" t="s">
         <v>46</v>
       </c>
       <c r="N21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O21" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1514,7 +1544,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
         <v>46</v>
@@ -1526,31 +1556,31 @@
         <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" t="s">
         <v>49</v>
       </c>
-      <c r="I22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" t="s">
-        <v>46</v>
-      </c>
-      <c r="L22" t="s">
-        <v>46</v>
-      </c>
       <c r="M22" t="s">
         <v>46</v>
       </c>
       <c r="N22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O22" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1561,43 +1591,43 @@
         <v>46</v>
       </c>
       <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
         <v>48</v>
       </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
       <c r="I23" t="s">
         <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L23" t="s">
         <v>46</v>
       </c>
       <c r="M23" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1611,40 +1641,40 @@
         <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" t="s">
         <v>50</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" t="s">
-        <v>51</v>
-      </c>
-      <c r="L24" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" t="s">
-        <v>48</v>
-      </c>
-      <c r="N24" t="s">
-        <v>46</v>
-      </c>
       <c r="O24" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1652,43 +1682,43 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
       </c>
       <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" t="s">
+        <v>59</v>
+      </c>
+      <c r="N25" t="s">
         <v>49</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25" t="s">
-        <v>46</v>
-      </c>
-      <c r="N25" t="s">
-        <v>46</v>
       </c>
       <c r="O25" t="s">
         <v>46</v>
@@ -1699,37 +1729,37 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" t="s">
-        <v>46</v>
       </c>
       <c r="M26" t="s">
         <v>46</v>
@@ -1761,16 +1791,16 @@
         <v>46</v>
       </c>
       <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
         <v>52</v>
       </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
       <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
         <v>52</v>
-      </c>
-      <c r="J27" t="s">
-        <v>46</v>
       </c>
       <c r="K27" t="s">
         <v>46</v>
@@ -1793,10 +1823,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
@@ -1843,13 +1873,13 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
         <v>46</v>
@@ -1861,10 +1891,10 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
@@ -1879,7 +1909,7 @@
         <v>46</v>
       </c>
       <c r="O29" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1896,13 +1926,13 @@
         <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
         <v>46</v>
@@ -1914,19 +1944,19 @@
         <v>46</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L30" t="s">
         <v>46</v>
       </c>
       <c r="M30" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N30" t="s">
         <v>46</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1946,7 +1976,7 @@
         <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -1961,10 +1991,10 @@
         <v>46</v>
       </c>
       <c r="K31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M31" t="s">
         <v>46</v>
@@ -1981,46 +2011,46 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>54</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J32" t="s">
         <v>54</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L32" t="s">
         <v>54</v>
       </c>
       <c r="M32" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="N32" t="s">
         <v>54</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -14,102 +14,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="66">
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Madi</t>
-  </si>
-  <si>
-    <t>Genesa</t>
-  </si>
-  <si>
-    <t>Alyssa</t>
-  </si>
-  <si>
-    <t>Travis</t>
-  </si>
-  <si>
-    <t>Colton</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Alysia</t>
-  </si>
-  <si>
-    <t>Jacob Dashner</t>
-  </si>
-  <si>
-    <t>Rachelle</t>
-  </si>
-  <si>
-    <t>Jay</t>
-  </si>
-  <si>
-    <t>Jacob Hunter</t>
-  </si>
-  <si>
-    <t>Karen</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Shane</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Anzzony</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Avery</t>
-  </si>
-  <si>
-    <t>Maddy</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Chris L.</t>
-  </si>
-  <si>
-    <t>Lily</t>
-  </si>
-  <si>
-    <t>Aletha</t>
-  </si>
-  <si>
-    <t>Kate</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>Robbie</t>
-  </si>
-  <si>
-    <t>Nicholas</t>
-  </si>
-  <si>
-    <t>Natalie</t>
-  </si>
-  <si>
-    <t>Cara</t>
-  </si>
-  <si>
-    <t>Alfonso</t>
+    <t>Bartender 1</t>
+  </si>
+  <si>
+    <t>Bartender 2</t>
+  </si>
+  <si>
+    <t>Bartender 3</t>
+  </si>
+  <si>
+    <t>Bartender 4</t>
+  </si>
+  <si>
+    <t>Bartender 5</t>
+  </si>
+  <si>
+    <t>Bartender 6</t>
+  </si>
+  <si>
+    <t>Server 1</t>
+  </si>
+  <si>
+    <t>Server 2</t>
+  </si>
+  <si>
+    <t>Server 3</t>
+  </si>
+  <si>
+    <t>Server 4</t>
+  </si>
+  <si>
+    <t>Server 5</t>
+  </si>
+  <si>
+    <t>Server 6</t>
+  </si>
+  <si>
+    <t>Server 7</t>
+  </si>
+  <si>
+    <t>Server 8</t>
+  </si>
+  <si>
+    <t>Server 9</t>
+  </si>
+  <si>
+    <t>Server 10</t>
+  </si>
+  <si>
+    <t>Server 11</t>
+  </si>
+  <si>
+    <t>Server 12</t>
+  </si>
+  <si>
+    <t>Server 13</t>
+  </si>
+  <si>
+    <t>Server 14</t>
+  </si>
+  <si>
+    <t>Server 15</t>
+  </si>
+  <si>
+    <t>Server 16</t>
+  </si>
+  <si>
+    <t>Server 17</t>
+  </si>
+  <si>
+    <t>Server 18</t>
+  </si>
+  <si>
+    <t>Host 1</t>
+  </si>
+  <si>
+    <t>Host 2</t>
+  </si>
+  <si>
+    <t>Host 3</t>
+  </si>
+  <si>
+    <t>Host 4</t>
+  </si>
+  <si>
+    <t>Host 5</t>
+  </si>
+  <si>
+    <t>Host 6</t>
+  </si>
+  <si>
+    <t>Expo Man</t>
   </si>
   <si>
     <t>SundayAM</t>
@@ -607,10 +607,10 @@
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -619,22 +619,22 @@
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
         <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="N2" t="s">
         <v>46</v>
@@ -648,22 +648,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
@@ -675,13 +675,13 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
         <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
         <v>53</v>
@@ -695,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -710,13 +710,13 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
@@ -728,13 +728,13 @@
         <v>46</v>
       </c>
       <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
         <v>61</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -745,16 +745,16 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -766,10 +766,10 @@
         <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
         <v>46</v>
@@ -778,7 +778,7 @@
         <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
         <v>61</v>
@@ -792,7 +792,7 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -807,7 +807,7 @@
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
         <v>61</v>
@@ -839,43 +839,43 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>53</v>
       </c>
-      <c r="M7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
-      </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -883,46 +883,46 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
         <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" t="s">
-        <v>57</v>
-      </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N8" t="s">
         <v>47</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -945,25 +945,25 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
         <v>57</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
       </c>
       <c r="N9" t="s">
         <v>46</v>
@@ -983,13 +983,13 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1001,16 +1001,16 @@
         <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
         <v>46</v>
@@ -1024,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -1042,10 +1042,10 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
@@ -1054,7 +1054,7 @@
         <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M11" t="s">
         <v>46</v>
@@ -1098,16 +1098,16 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L12" t="s">
         <v>46</v>
       </c>
       <c r="M12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="N12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O12" t="s">
         <v>46</v>
@@ -1118,16 +1118,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
         <v>46</v>
@@ -1136,19 +1136,19 @@
         <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
         <v>46</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
@@ -1171,40 +1171,40 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
         <v>64</v>
       </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
-        <v>46</v>
-      </c>
       <c r="J14" t="s">
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1212,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1224,19 +1224,19 @@
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s">
         <v>46</v>
@@ -1262,16 +1262,16 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1286,19 +1286,19 @@
         <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
         <v>46</v>
       </c>
       <c r="M16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N16" t="s">
         <v>46</v>
       </c>
       <c r="O16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1309,7 +1309,7 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -1318,34 +1318,34 @@
         <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
         <v>46</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M17" t="s">
         <v>46</v>
       </c>
       <c r="N17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O17" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1353,22 +1353,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
@@ -1380,19 +1380,19 @@
         <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="L18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N18" t="s">
         <v>46</v>
       </c>
       <c r="O18" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1400,22 +1400,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
         <v>46</v>
@@ -1427,7 +1427,7 @@
         <v>46</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L19" t="s">
         <v>46</v>
@@ -1447,7 +1447,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
@@ -1465,13 +1465,13 @@
         <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s">
         <v>46</v>
@@ -1486,7 +1486,7 @@
         <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1497,7 +1497,7 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
@@ -1506,10 +1506,10 @@
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
         <v>46</v>
@@ -1533,7 +1533,7 @@
         <v>46</v>
       </c>
       <c r="O21" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1544,7 +1544,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
         <v>46</v>
@@ -1565,13 +1565,13 @@
         <v>46</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K22" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="L22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M22" t="s">
         <v>46</v>
@@ -1580,7 +1580,7 @@
         <v>46</v>
       </c>
       <c r="O22" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1591,16 +1591,16 @@
         <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -1612,16 +1612,16 @@
         <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s">
         <v>46</v>
       </c>
       <c r="L23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="N23" t="s">
         <v>46</v>
@@ -1641,7 +1641,7 @@
         <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
@@ -1650,7 +1650,7 @@
         <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
@@ -1674,7 +1674,7 @@
         <v>50</v>
       </c>
       <c r="O24" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1682,28 +1682,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s">
         <v>46</v>
@@ -1715,7 +1715,7 @@
         <v>46</v>
       </c>
       <c r="M25" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="N25" t="s">
         <v>49</v>
@@ -1735,7 +1735,7 @@
         <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
         <v>46</v>
@@ -1756,10 +1756,10 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M26" t="s">
         <v>46</v>
@@ -1768,7 +1768,7 @@
         <v>46</v>
       </c>
       <c r="O26" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1776,7 +1776,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>46</v>
@@ -1788,7 +1788,7 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -1800,19 +1800,19 @@
         <v>46</v>
       </c>
       <c r="J27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" t="s">
         <v>52</v>
-      </c>
-      <c r="K27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" t="s">
-        <v>46</v>
-      </c>
-      <c r="M27" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" t="s">
-        <v>46</v>
       </c>
       <c r="O27" t="s">
         <v>46</v>
@@ -1823,43 +1823,43 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" t="s">
         <v>52</v>
       </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" t="s">
-        <v>46</v>
-      </c>
-      <c r="L28" t="s">
-        <v>46</v>
-      </c>
       <c r="M28" t="s">
         <v>46</v>
       </c>
       <c r="N28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O28" t="s">
         <v>46</v>
@@ -1873,43 +1873,43 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" t="s">
         <v>60</v>
       </c>
-      <c r="D29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s">
-        <v>60</v>
-      </c>
-      <c r="J29" t="s">
-        <v>46</v>
-      </c>
-      <c r="K29" t="s">
-        <v>46</v>
-      </c>
-      <c r="L29" t="s">
-        <v>46</v>
-      </c>
-      <c r="M29" t="s">
-        <v>46</v>
-      </c>
       <c r="N29" t="s">
         <v>46</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1929,28 +1929,28 @@
         <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
         <v>60</v>
       </c>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" t="s">
-        <v>46</v>
-      </c>
       <c r="J30" t="s">
         <v>46</v>
       </c>
       <c r="K30" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L30" t="s">
         <v>46</v>
       </c>
       <c r="M30" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="N30" t="s">
         <v>46</v>
@@ -1967,7 +1967,7 @@
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
@@ -2011,19 +2011,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
         <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G32" t="s">
         <v>62</v>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -19,97 +19,97 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Bartender 1</t>
-  </si>
-  <si>
-    <t>Bartender 2</t>
-  </si>
-  <si>
-    <t>Bartender 3</t>
-  </si>
-  <si>
-    <t>Bartender 4</t>
-  </si>
-  <si>
-    <t>Bartender 5</t>
-  </si>
-  <si>
-    <t>Bartender 6</t>
-  </si>
-  <si>
-    <t>Server 1</t>
-  </si>
-  <si>
-    <t>Server 2</t>
-  </si>
-  <si>
-    <t>Server 3</t>
-  </si>
-  <si>
-    <t>Server 4</t>
-  </si>
-  <si>
-    <t>Server 5</t>
-  </si>
-  <si>
-    <t>Server 6</t>
-  </si>
-  <si>
-    <t>Server 7</t>
-  </si>
-  <si>
-    <t>Server 8</t>
-  </si>
-  <si>
-    <t>Server 9</t>
-  </si>
-  <si>
-    <t>Server 10</t>
-  </si>
-  <si>
-    <t>Server 11</t>
-  </si>
-  <si>
-    <t>Server 12</t>
-  </si>
-  <si>
-    <t>Server 13</t>
-  </si>
-  <si>
-    <t>Server 14</t>
-  </si>
-  <si>
-    <t>Server 15</t>
-  </si>
-  <si>
-    <t>Server 16</t>
-  </si>
-  <si>
-    <t>Server 17</t>
-  </si>
-  <si>
-    <t>Server 18</t>
-  </si>
-  <si>
-    <t>Host 1</t>
-  </si>
-  <si>
-    <t>Host 2</t>
-  </si>
-  <si>
-    <t>Host 3</t>
-  </si>
-  <si>
-    <t>Host 4</t>
-  </si>
-  <si>
-    <t>Host 5</t>
-  </si>
-  <si>
-    <t>Host 6</t>
-  </si>
-  <si>
-    <t>Expo Man</t>
+    <t>Madi</t>
+  </si>
+  <si>
+    <t>Genesa</t>
+  </si>
+  <si>
+    <t>Alyssa</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Colton</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Alysia</t>
+  </si>
+  <si>
+    <t>Jacob Dashner</t>
+  </si>
+  <si>
+    <t>Rachelle</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Jacob Hunter</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Shane</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Anzzony</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Avery</t>
+  </si>
+  <si>
+    <t>Maddy</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Chris L.</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>Aletha</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Robbie</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Cara</t>
+  </si>
+  <si>
+    <t>Alfonso</t>
   </si>
   <si>
     <t>SundayAM</t>
@@ -604,34 +604,34 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
@@ -640,7 +640,7 @@
         <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -651,40 +651,40 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
         <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
         <v>46</v>
@@ -716,7 +716,7 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
@@ -728,10 +728,10 @@
         <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
         <v>61</v>
@@ -745,23 +745,23 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
         <v>53</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
       <c r="I5" t="s">
         <v>46</v>
       </c>
@@ -781,7 +781,7 @@
         <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -792,7 +792,7 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -810,7 +810,7 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
@@ -836,22 +836,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
@@ -869,10 +869,10 @@
         <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O7" t="s">
         <v>46</v>
@@ -886,7 +886,7 @@
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
@@ -895,34 +895,34 @@
         <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" t="s">
-        <v>63</v>
-      </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -930,13 +930,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
@@ -945,31 +945,31 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" t="s">
         <v>57</v>
-      </c>
-      <c r="N9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -983,13 +983,13 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -998,25 +998,25 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" t="s">
         <v>58</v>
-      </c>
-      <c r="L10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1024,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -1036,13 +1036,13 @@
         <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
         <v>46</v>
@@ -1071,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -1080,13 +1080,13 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
         <v>46</v>
@@ -1098,13 +1098,13 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L12" t="s">
         <v>46</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="N12" t="s">
         <v>46</v>
@@ -1121,7 +1121,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -1130,31 +1130,31 @@
         <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" t="s">
         <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" t="s">
-        <v>46</v>
       </c>
       <c r="O13" t="s">
         <v>46</v>
@@ -1168,10 +1168,10 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>46</v>
@@ -1180,13 +1180,13 @@
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
         <v>46</v>
@@ -1195,16 +1195,16 @@
         <v>46</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1212,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1230,10 +1230,10 @@
         <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s">
         <v>46</v>
@@ -1242,7 +1242,7 @@
         <v>46</v>
       </c>
       <c r="L15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M15" t="s">
         <v>46</v>
@@ -1265,10 +1265,10 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
         <v>46</v>
@@ -1283,22 +1283,22 @@
         <v>46</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s">
         <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="N16" t="s">
         <v>46</v>
       </c>
       <c r="O16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1309,7 +1309,7 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -1324,7 +1324,7 @@
         <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
@@ -1336,16 +1336,16 @@
         <v>46</v>
       </c>
       <c r="L17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M17" t="s">
         <v>46</v>
       </c>
       <c r="N17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1356,19 +1356,19 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
@@ -1380,19 +1380,19 @@
         <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L18" t="s">
         <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="N18" t="s">
         <v>46</v>
       </c>
       <c r="O18" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1400,7 +1400,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
@@ -1409,13 +1409,13 @@
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
         <v>46</v>
@@ -1424,10 +1424,10 @@
         <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L19" t="s">
         <v>46</v>
@@ -1436,7 +1436,7 @@
         <v>46</v>
       </c>
       <c r="N19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O19" t="s">
         <v>46</v>
@@ -1447,10 +1447,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
@@ -1468,7 +1468,7 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s">
         <v>49</v>
@@ -1486,7 +1486,7 @@
         <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1497,19 +1497,19 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
         <v>46</v>
@@ -1544,13 +1544,13 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
         <v>46</v>
@@ -1562,25 +1562,25 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s">
         <v>46</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="L22" t="s">
         <v>46</v>
       </c>
       <c r="M22" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N22" t="s">
         <v>46</v>
       </c>
       <c r="O22" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1591,40 +1591,40 @@
         <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
         <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s">
         <v>46</v>
       </c>
       <c r="L23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" t="s">
         <v>50</v>
-      </c>
-      <c r="M23" t="s">
-        <v>46</v>
-      </c>
-      <c r="N23" t="s">
-        <v>46</v>
       </c>
       <c r="O23" t="s">
         <v>46</v>
@@ -1641,7 +1641,7 @@
         <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
@@ -1650,7 +1650,7 @@
         <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
@@ -1659,7 +1659,7 @@
         <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s">
         <v>46</v>
@@ -1671,7 +1671,7 @@
         <v>46</v>
       </c>
       <c r="N24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O24" t="s">
         <v>46</v>
@@ -1682,13 +1682,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
@@ -1715,7 +1715,7 @@
         <v>46</v>
       </c>
       <c r="M25" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="N25" t="s">
         <v>49</v>
@@ -1741,7 +1741,7 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -1753,13 +1753,13 @@
         <v>46</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L26" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M26" t="s">
         <v>46</v>
@@ -1776,7 +1776,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>46</v>
@@ -1788,22 +1788,22 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
         <v>46</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L27" t="s">
         <v>46</v>
@@ -1812,7 +1812,7 @@
         <v>46</v>
       </c>
       <c r="N27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O27" t="s">
         <v>46</v>
@@ -1841,7 +1841,7 @@
         <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s">
         <v>46</v>
@@ -1853,7 +1853,7 @@
         <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M28" t="s">
         <v>46</v>
@@ -1894,7 +1894,7 @@
         <v>46</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
@@ -1903,7 +1903,7 @@
         <v>46</v>
       </c>
       <c r="M29" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="N29" t="s">
         <v>46</v>
@@ -1920,40 +1920,40 @@
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
       </c>
       <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" t="s">
         <v>60</v>
       </c>
-      <c r="F30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" t="s">
-        <v>60</v>
-      </c>
-      <c r="J30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K30" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" t="s">
-        <v>46</v>
-      </c>
       <c r="N30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O30" t="s">
         <v>46</v>
@@ -1964,16 +1964,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
         <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" t="s">
-        <v>46</v>
       </c>
       <c r="F31" t="s">
         <v>46</v>
@@ -2035,7 +2035,7 @@
         <v>62</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K32" t="s">
         <v>62</v>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="66">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -883,43 +883,43 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
         <v>64</v>
       </c>
       <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
         <v>54</v>
       </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" t="s">
-        <v>46</v>
-      </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O8" t="s">
         <v>62</v>
@@ -930,13 +930,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
@@ -945,22 +945,22 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s">
         <v>46</v>
@@ -969,7 +969,7 @@
         <v>46</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -983,23 +983,23 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
         <v>57</v>
       </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>59</v>
-      </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>46</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1036,34 +1036,34 @@
         <v>46</v>
       </c>
       <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" t="s">
-        <v>46</v>
-      </c>
       <c r="M11" t="s">
         <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1086,25 +1086,25 @@
         <v>46</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
         <v>58</v>
       </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L12" t="s">
         <v>46</v>
       </c>
       <c r="M12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" t="s">
         <v>46</v>
@@ -1130,31 +1130,31 @@
         <v>46</v>
       </c>
       <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" t="s">
         <v>47</v>
       </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" t="s">
-        <v>46</v>
-      </c>
       <c r="M13" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O13" t="s">
         <v>46</v>
@@ -1165,10 +1165,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -1183,28 +1183,28 @@
         <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" t="s">
         <v>63</v>
       </c>
-      <c r="J14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
       <c r="L14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N14" t="s">
         <v>46</v>
       </c>
       <c r="O14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1212,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1230,7 +1230,7 @@
         <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
         <v>46</v>
@@ -1239,7 +1239,7 @@
         <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="L15" t="s">
         <v>50</v>
@@ -1248,7 +1248,7 @@
         <v>46</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O15" t="s">
         <v>46</v>
@@ -1262,13 +1262,13 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
         <v>46</v>
@@ -1280,25 +1280,25 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" t="s">
         <v>47</v>
       </c>
-      <c r="K16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" t="s">
-        <v>46</v>
-      </c>
       <c r="O16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1309,7 +1309,7 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -1321,10 +1321,10 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
@@ -1356,7 +1356,7 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
@@ -1380,7 +1380,7 @@
         <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L18" t="s">
         <v>46</v>
@@ -1400,7 +1400,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
@@ -1424,7 +1424,7 @@
         <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s">
         <v>46</v>
@@ -1436,10 +1436,10 @@
         <v>46</v>
       </c>
       <c r="N19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O19" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1447,38 +1447,38 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" t="s">
-        <v>46</v>
-      </c>
       <c r="M20" t="s">
         <v>46</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1497,19 +1497,19 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>46</v>
@@ -1527,7 +1527,7 @@
         <v>46</v>
       </c>
       <c r="M21" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N21" t="s">
         <v>46</v>
@@ -1544,16 +1544,16 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -1562,25 +1562,25 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J22" t="s">
         <v>46</v>
       </c>
       <c r="K22" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L22" t="s">
         <v>46</v>
       </c>
       <c r="M22" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1597,16 +1597,16 @@
         <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
         <v>46</v>
@@ -1618,16 +1618,16 @@
         <v>46</v>
       </c>
       <c r="L23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="N23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O23" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1635,22 +1635,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
@@ -1659,7 +1659,7 @@
         <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s">
         <v>46</v>
@@ -1682,13 +1682,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
@@ -1697,7 +1697,7 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
         <v>46</v>
@@ -1709,16 +1709,16 @@
         <v>46</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="L25" t="s">
         <v>46</v>
       </c>
       <c r="M25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O25" t="s">
         <v>46</v>
@@ -1735,10 +1735,10 @@
         <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
         <v>52</v>
@@ -1750,16 +1750,16 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s">
         <v>46</v>
       </c>
       <c r="L26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M26" t="s">
         <v>46</v>
@@ -1768,7 +1768,7 @@
         <v>46</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1797,25 +1797,25 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" t="s">
         <v>60</v>
       </c>
-      <c r="J27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="N27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" t="s">
         <v>60</v>
-      </c>
-      <c r="L27" t="s">
-        <v>46</v>
-      </c>
-      <c r="M27" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O27" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1838,10 +1838,10 @@
         <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
         <v>46</v>
@@ -1873,7 +1873,7 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
@@ -1894,13 +1894,13 @@
         <v>46</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
       </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M29" t="s">
         <v>46</v>
@@ -1920,37 +1920,37 @@
         <v>46</v>
       </c>
       <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
         <v>60</v>
       </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K30" t="s">
-        <v>46</v>
-      </c>
       <c r="L30" t="s">
         <v>46</v>
       </c>
       <c r="M30" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="N30" t="s">
         <v>52</v>
@@ -1970,19 +1970,19 @@
         <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
         <v>60</v>
       </c>
-      <c r="F31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s">
         <v>46</v>
@@ -2011,13 +2011,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
         <v>62</v>
@@ -2035,13 +2035,13 @@
         <v>62</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K32" t="s">
         <v>62</v>
       </c>
       <c r="L32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M32" t="s">
         <v>62</v>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="66">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -886,16 +886,16 @@
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
         <v>63</v>
@@ -904,10 +904,10 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s">
         <v>46</v>
@@ -916,10 +916,10 @@
         <v>54</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O8" t="s">
         <v>62</v>
@@ -930,43 +930,43 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
         <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O9" t="s">
         <v>46</v>
@@ -983,7 +983,7 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
@@ -995,16 +995,16 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>46</v>
@@ -1039,10 +1039,10 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
         <v>59</v>
@@ -1054,16 +1054,16 @@
         <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M11" t="s">
         <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O11" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1071,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -1080,7 +1080,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
         <v>46</v>
@@ -1092,16 +1092,16 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M12" t="s">
         <v>46</v>
@@ -1118,7 +1118,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
@@ -1130,7 +1130,7 @@
         <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1145,19 +1145,19 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" t="s">
         <v>56</v>
-      </c>
-      <c r="N13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1165,7 +1165,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
@@ -1183,28 +1183,28 @@
         <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s">
         <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="N14" t="s">
         <v>46</v>
       </c>
       <c r="O14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1224,7 +1224,7 @@
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1236,19 +1236,19 @@
         <v>46</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" t="s">
         <v>46</v>
@@ -1262,25 +1262,25 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s">
         <v>46</v>
@@ -1292,13 +1292,13 @@
         <v>46</v>
       </c>
       <c r="M16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" t="s">
         <v>58</v>
-      </c>
-      <c r="N16" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1312,7 +1312,7 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
         <v>46</v>
@@ -1321,10 +1321,10 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
@@ -1339,13 +1339,13 @@
         <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="N17" t="s">
         <v>46</v>
       </c>
       <c r="O17" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1362,7 +1362,7 @@
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
@@ -1400,7 +1400,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
@@ -1409,7 +1409,7 @@
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
         <v>46</v>
@@ -1421,10 +1421,10 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s">
         <v>46</v>
@@ -1439,7 +1439,7 @@
         <v>46</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1450,7 +1450,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>48</v>
@@ -1462,7 +1462,7 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>46</v>
@@ -1474,10 +1474,10 @@
         <v>48</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="L20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M20" t="s">
         <v>46</v>
@@ -1494,22 +1494,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
         <v>46</v>
@@ -1527,7 +1527,7 @@
         <v>46</v>
       </c>
       <c r="M21" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="N21" t="s">
         <v>46</v>
@@ -1547,40 +1547,40 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" t="s">
-        <v>46</v>
-      </c>
-      <c r="L22" t="s">
-        <v>46</v>
-      </c>
-      <c r="M22" t="s">
-        <v>46</v>
-      </c>
-      <c r="N22" t="s">
-        <v>49</v>
-      </c>
       <c r="O22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1588,25 +1588,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
         <v>46</v>
@@ -1618,16 +1618,16 @@
         <v>46</v>
       </c>
       <c r="L23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M23" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N23" t="s">
         <v>46</v>
       </c>
       <c r="O23" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1638,37 +1638,37 @@
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" t="s">
         <v>50</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24" t="s">
-        <v>46</v>
-      </c>
       <c r="M24" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N24" t="s">
         <v>46</v>
@@ -1682,13 +1682,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
@@ -1700,7 +1700,7 @@
         <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
         <v>46</v>
@@ -1709,13 +1709,13 @@
         <v>46</v>
       </c>
       <c r="K25" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="L25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M25" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N25" t="s">
         <v>46</v>
@@ -1750,19 +1750,19 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" t="s">
         <v>60</v>
-      </c>
-      <c r="J26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" t="s">
-        <v>46</v>
-      </c>
-      <c r="M26" t="s">
-        <v>46</v>
       </c>
       <c r="N26" t="s">
         <v>46</v>
@@ -1791,16 +1791,16 @@
         <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s">
         <v>46</v>
@@ -1809,10 +1809,10 @@
         <v>46</v>
       </c>
       <c r="M27" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="N27" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O27" t="s">
         <v>60</v>
@@ -1853,7 +1853,7 @@
         <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M28" t="s">
         <v>46</v>
@@ -1873,7 +1873,7 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
@@ -1888,19 +1888,19 @@
         <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I29" t="s">
         <v>46</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
       </c>
       <c r="L29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M29" t="s">
         <v>46</v>
@@ -1917,10 +1917,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
@@ -1953,7 +1953,7 @@
         <v>46</v>
       </c>
       <c r="N30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O30" t="s">
         <v>46</v>
@@ -1964,7 +1964,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
@@ -1979,10 +1979,10 @@
         <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
         <v>46</v>
@@ -2014,7 +2014,7 @@
         <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="68">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -157,6 +157,36 @@
     <t>-</t>
   </si>
   <si>
+    <t>Not Full</t>
+  </si>
+  <si>
+    <t>4:00: 1</t>
+  </si>
+  <si>
+    <t>4:00: 2</t>
+  </si>
+  <si>
+    <t>4:00: 3</t>
+  </si>
+  <si>
+    <t>4:00: 4</t>
+  </si>
+  <si>
+    <t>4:00: 5</t>
+  </si>
+  <si>
+    <t>4:00: H/G</t>
+  </si>
+  <si>
+    <t>4:00: Bar</t>
+  </si>
+  <si>
+    <t>4:00 Runner</t>
+  </si>
+  <si>
+    <t>4:00: Expo</t>
+  </si>
+  <si>
     <t>10:00: 1</t>
   </si>
   <si>
@@ -169,46 +199,22 @@
     <t>10:00: 4</t>
   </si>
   <si>
+    <t>11:00: H/G</t>
+  </si>
+  <si>
+    <t>10:00: Bar</t>
+  </si>
+  <si>
+    <t>10:00: Expo</t>
+  </si>
+  <si>
+    <t>5:00: 1</t>
+  </si>
+  <si>
+    <t>5:00: 2</t>
+  </si>
+  <si>
     <t>10:00: 5</t>
-  </si>
-  <si>
-    <t>11:00: H/G</t>
-  </si>
-  <si>
-    <t>10:00: Bar</t>
-  </si>
-  <si>
-    <t>10:00: Expo</t>
-  </si>
-  <si>
-    <t>4:00: 1</t>
-  </si>
-  <si>
-    <t>4:00: 2</t>
-  </si>
-  <si>
-    <t>4:00: 3</t>
-  </si>
-  <si>
-    <t>4:00: 4</t>
-  </si>
-  <si>
-    <t>4:00: 5</t>
-  </si>
-  <si>
-    <t>4:00: H/G</t>
-  </si>
-  <si>
-    <t>4:00: Bar</t>
-  </si>
-  <si>
-    <t>4:00: Expo</t>
-  </si>
-  <si>
-    <t>5:00: 1</t>
-  </si>
-  <si>
-    <t>5:00: 2</t>
   </si>
   <si>
     <t>Name</t>
@@ -551,10 +557,10 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>33</v>
@@ -604,7 +610,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -628,19 +634,19 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
         <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
         <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -654,13 +660,13 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -669,16 +675,16 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
         <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
         <v>46</v>
@@ -695,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -716,25 +722,25 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
         <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -745,22 +751,22 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
         <v>46</v>
@@ -845,13 +851,13 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
@@ -883,46 +889,46 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" t="s">
-        <v>46</v>
-      </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -930,16 +936,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
         <v>46</v>
@@ -948,25 +954,25 @@
         <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
         <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O9" t="s">
         <v>46</v>
@@ -986,16 +992,16 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
         <v>46</v>
@@ -1004,7 +1010,7 @@
         <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s">
         <v>46</v>
@@ -1039,13 +1045,13 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
@@ -1092,7 +1098,7 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
@@ -1101,13 +1107,13 @@
         <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M12" t="s">
         <v>46</v>
       </c>
       <c r="N12" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="O12" t="s">
         <v>46</v>
@@ -1118,10 +1124,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -1145,7 +1151,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="L13" t="s">
         <v>46</v>
@@ -1154,10 +1160,10 @@
         <v>46</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1168,7 +1174,7 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -1177,7 +1183,7 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1186,25 +1192,25 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="J14" t="s">
         <v>46</v>
       </c>
       <c r="K14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" t="s">
         <v>57</v>
       </c>
-      <c r="L14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14" t="s">
-        <v>46</v>
-      </c>
       <c r="O14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1218,37 +1224,37 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
         <v>46</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="M15" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="N15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O15" t="s">
         <v>46</v>
@@ -1262,7 +1268,7 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
@@ -1271,19 +1277,19 @@
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
         <v>46</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="K16" t="s">
         <v>46</v>
@@ -1292,13 +1298,13 @@
         <v>46</v>
       </c>
       <c r="M16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N16" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="O16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1312,7 +1318,7 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
         <v>46</v>
@@ -1321,10 +1327,10 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
@@ -1336,16 +1342,16 @@
         <v>46</v>
       </c>
       <c r="L17" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N17" t="s">
         <v>46</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1356,13 +1362,13 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
@@ -1371,7 +1377,7 @@
         <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
         <v>46</v>
@@ -1380,7 +1386,7 @@
         <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L18" t="s">
         <v>46</v>
@@ -1409,7 +1415,7 @@
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
         <v>46</v>
@@ -1421,10 +1427,10 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s">
         <v>46</v>
@@ -1450,10 +1456,10 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
         <v>46</v>
@@ -1462,7 +1468,7 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
         <v>46</v>
@@ -1471,13 +1477,13 @@
         <v>46</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s">
         <v>46</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M20" t="s">
         <v>46</v>
@@ -1486,7 +1492,7 @@
         <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1494,19 +1500,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -1533,7 +1539,7 @@
         <v>46</v>
       </c>
       <c r="O21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1553,34 +1559,34 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22" t="s">
         <v>50</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" t="s">
-        <v>46</v>
-      </c>
-      <c r="L22" t="s">
-        <v>46</v>
-      </c>
-      <c r="M22" t="s">
-        <v>46</v>
-      </c>
-      <c r="N22" t="s">
-        <v>47</v>
-      </c>
-      <c r="O22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1588,10 +1594,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
@@ -1612,7 +1618,7 @@
         <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="K23" t="s">
         <v>46</v>
@@ -1621,7 +1627,7 @@
         <v>46</v>
       </c>
       <c r="M23" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N23" t="s">
         <v>46</v>
@@ -1635,46 +1641,46 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" t="s">
         <v>50</v>
       </c>
-      <c r="M24" t="s">
-        <v>56</v>
-      </c>
       <c r="N24" t="s">
         <v>46</v>
       </c>
       <c r="O24" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1685,34 +1691,34 @@
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
         <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="K25" t="s">
         <v>46</v>
       </c>
       <c r="L25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M25" t="s">
         <v>46</v>
@@ -1735,13 +1741,13 @@
         <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -1762,10 +1768,10 @@
         <v>46</v>
       </c>
       <c r="M26" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="N26" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="O26" t="s">
         <v>46</v>
@@ -1779,7 +1785,7 @@
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
@@ -1791,16 +1797,16 @@
         <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K27" t="s">
         <v>46</v>
@@ -1812,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="N27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1826,7 +1832,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
@@ -1853,7 +1859,7 @@
         <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="M28" t="s">
         <v>46</v>
@@ -1879,7 +1885,7 @@
         <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
         <v>46</v>
@@ -1888,7 +1894,7 @@
         <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
         <v>46</v>
@@ -1909,7 +1915,7 @@
         <v>46</v>
       </c>
       <c r="O29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1917,19 +1923,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -1944,13 +1950,13 @@
         <v>46</v>
       </c>
       <c r="K30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L30" t="s">
         <v>46</v>
       </c>
       <c r="M30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N30" t="s">
         <v>46</v>
@@ -1970,7 +1976,7 @@
         <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
         <v>46</v>
@@ -1979,10 +1985,10 @@
         <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I31" t="s">
         <v>46</v>
@@ -1997,13 +2003,13 @@
         <v>46</v>
       </c>
       <c r="M31" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="N31" t="s">
         <v>46</v>
       </c>
       <c r="O31" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2014,43 +2020,43 @@
         <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="L32" t="s">
         <v>46</v>
       </c>
       <c r="M32" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/shift.xlsx
+++ b/shift.xlsx
@@ -14,30 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="79">
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Madi</t>
-  </si>
-  <si>
     <t>Genesa</t>
   </si>
   <si>
-    <t>Alyssa</t>
-  </si>
-  <si>
     <t>Travis</t>
   </si>
   <si>
+    <t>Chris</t>
+  </si>
+  <si>
     <t>Colton</t>
   </si>
   <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Alysia</t>
+    <t>Alex</t>
   </si>
   <si>
     <t>Jacob Dashner</t>
@@ -67,12 +61,6 @@
     <t>Diana</t>
   </si>
   <si>
-    <t>Anzzony</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
     <t>Avery</t>
   </si>
   <si>
@@ -82,13 +70,22 @@
     <t>Emma</t>
   </si>
   <si>
-    <t>Chris L.</t>
+    <t>Marleny</t>
+  </si>
+  <si>
+    <t>Aletha</t>
+  </si>
+  <si>
+    <t>Chris McCabe</t>
+  </si>
+  <si>
+    <t>Andrew</t>
   </si>
   <si>
     <t>Lily</t>
   </si>
   <si>
-    <t>Aletha</t>
+    <t>Bella</t>
   </si>
   <si>
     <t>Kate</t>
@@ -109,9 +106,33 @@
     <t>Cara</t>
   </si>
   <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Jose (Busser)</t>
+  </si>
+  <si>
+    <t>Karen (expo)</t>
+  </si>
+  <si>
+    <t>Doris</t>
+  </si>
+  <si>
     <t>Alfonso</t>
   </si>
   <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Derek</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
     <t>SundayAM</t>
   </si>
   <si>
@@ -160,6 +181,33 @@
     <t>Not Full</t>
   </si>
   <si>
+    <t>10:00: 1</t>
+  </si>
+  <si>
+    <t>10:00: 2</t>
+  </si>
+  <si>
+    <t>10:00: 3</t>
+  </si>
+  <si>
+    <t>10:00: 4</t>
+  </si>
+  <si>
+    <t>10:00: 5</t>
+  </si>
+  <si>
+    <t>11:00: H/G</t>
+  </si>
+  <si>
+    <t>12:00 Runner</t>
+  </si>
+  <si>
+    <t>10:00: Expo</t>
+  </si>
+  <si>
+    <t>9:00 Bus</t>
+  </si>
+  <si>
     <t>4:00: 1</t>
   </si>
   <si>
@@ -187,34 +235,19 @@
     <t>4:00: Expo</t>
   </si>
   <si>
-    <t>10:00: 1</t>
-  </si>
-  <si>
-    <t>10:00: 2</t>
-  </si>
-  <si>
-    <t>10:00: 3</t>
-  </si>
-  <si>
-    <t>10:00: 4</t>
-  </si>
-  <si>
-    <t>11:00: H/G</t>
+    <t>4:00 Bus</t>
   </si>
   <si>
     <t>10:00: Bar</t>
   </si>
   <si>
-    <t>10:00: Expo</t>
-  </si>
-  <si>
     <t>5:00: 1</t>
   </si>
   <si>
     <t>5:00: 2</t>
   </si>
   <si>
-    <t>10:00: 5</t>
+    <t>5:00 Bus</t>
   </si>
   <si>
     <t>Name</t>
@@ -549,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -557,49 +590,49 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="O1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -607,46 +640,46 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -654,46 +687,46 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -701,46 +734,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -748,46 +781,46 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -795,46 +828,46 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -842,46 +875,46 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -889,46 +922,46 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -936,46 +969,46 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="O9" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -983,46 +1016,46 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="O10" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1030,46 +1063,46 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1077,46 +1110,46 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="N12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="O12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1124,46 +1157,46 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M13" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1171,46 +1204,46 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="L14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O14" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1218,46 +1251,46 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
         <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1265,46 +1298,46 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="O16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1312,46 +1345,46 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1359,46 +1392,46 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1406,46 +1439,46 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="L19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1453,46 +1486,46 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" t="s">
         <v>58</v>
       </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" t="s">
-        <v>46</v>
-      </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="L20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1500,46 +1533,46 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="L21" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1547,46 +1580,46 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="O22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1594,46 +1627,46 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1641,46 +1674,46 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L24" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N24" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1688,46 +1721,46 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1735,46 +1768,46 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N26" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1782,46 +1815,46 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
         <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L27" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M27" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="N27" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O27" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1829,46 +1862,46 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L28" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O28" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1876,43 +1909,43 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O29" t="s">
         <v>53</v>
@@ -1923,46 +1956,46 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s">
         <v>53</v>
       </c>
       <c r="L30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M30" t="s">
         <v>53</v>
       </c>
       <c r="N30" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1970,46 +2003,46 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K31" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="L31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M31" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="N31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2017,46 +2050,375 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" t="s">
         <v>63</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" t="s">
-        <v>46</v>
-      </c>
-      <c r="J32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" t="s">
-        <v>46</v>
-      </c>
       <c r="M32" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="N32" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O32" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" t="s">
+        <v>63</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" t="s">
+        <v>72</v>
+      </c>
+      <c r="L34" t="s">
+        <v>62</v>
+      </c>
+      <c r="M34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34" t="s">
+        <v>53</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" t="s">
+        <v>53</v>
+      </c>
+      <c r="M35" t="s">
+        <v>53</v>
+      </c>
+      <c r="N35" t="s">
+        <v>53</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K36" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" t="s">
+        <v>72</v>
+      </c>
+      <c r="N36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" t="s">
+        <v>53</v>
+      </c>
+      <c r="J37" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" t="s">
+        <v>53</v>
+      </c>
+      <c r="M37" t="s">
+        <v>53</v>
+      </c>
+      <c r="N37" t="s">
+        <v>53</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38" t="s">
+        <v>53</v>
+      </c>
+      <c r="M38" t="s">
+        <v>53</v>
+      </c>
+      <c r="N38" t="s">
+        <v>53</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" t="s">
+        <v>53</v>
+      </c>
+      <c r="J39" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39" t="s">
+        <v>53</v>
+      </c>
+      <c r="L39" t="s">
+        <v>53</v>
+      </c>
+      <c r="M39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N39" t="s">
+        <v>53</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
